--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1428</v>
+        <v>269</v>
       </c>
       <c r="B2" t="n">
-        <v>1466</v>
+        <v>298</v>
       </c>
       <c r="C2" t="n">
-        <v>1540</v>
+        <v>358</v>
       </c>
       <c r="D2" t="n">
-        <v>3.213527417443847</v>
+        <v>1.317497161348862</v>
       </c>
       <c r="E2" t="n">
-        <v>2.605384076966962</v>
+        <v>0.7016417818114008</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6081433404768855</v>
+        <v>-0.6158553795374613</v>
       </c>
       <c r="G2" t="n">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>51.87805997440478</v>
+        <v>65.96776276811261</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>237.6497022649856</v>
+        <v>64.60918415354558</v>
       </c>
       <c r="L2" t="n">
-        <v>8.74876448727232</v>
+        <v>3.587707325302956</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8482840385026984</v>
+        <v>0.752619838156003</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2028595672412647</v>
+        <v>0.1517051623806392</v>
       </c>
       <c r="S2" t="n">
-        <v>0.97306377581385</v>
+        <v>0.857769725375032</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>853</v>
+        <v>1844</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>1465</v>
       </c>
       <c r="C3" t="n">
-        <v>163</v>
+        <v>1542</v>
       </c>
       <c r="D3" t="n">
-        <v>2.683117492540525</v>
+        <v>3.213192699351634</v>
       </c>
       <c r="E3" t="n">
-        <v>2.054459222266418</v>
+        <v>2.597337319814172</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6286582702741069</v>
+        <v>-0.6158553795374613</v>
       </c>
       <c r="G3" t="n">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="H3" t="n">
-        <v>40.54157211524782</v>
+        <v>51.20494846239535</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J3" t="n">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>264.9214193179696</v>
+        <v>257.6124616617224</v>
       </c>
       <c r="L3" t="n">
-        <v>6.435475713533421</v>
+        <v>8.749920169293874</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7287361169922757</v>
+        <v>0.7019569083801507</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4954128440366973</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1748631293093737</v>
+        <v>0.1419373604230963</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6994623052084822</v>
+        <v>0.9624961106018118</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>854</v>
+        <v>1845</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1274</v>
+        <v>816</v>
       </c>
       <c r="B4" t="n">
-        <v>1302</v>
+        <v>847</v>
       </c>
       <c r="C4" t="n">
-        <v>1357</v>
+        <v>1091</v>
       </c>
       <c r="D4" t="n">
-        <v>1.961186118167404</v>
+        <v>4.275812113455738</v>
       </c>
       <c r="E4" t="n">
-        <v>1.238521043439678</v>
+        <v>3.809384219084642</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7226650747277263</v>
+        <v>-0.4664278943710961</v>
       </c>
       <c r="G4" t="n">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="H4" t="n">
-        <v>32.51600890510667</v>
+        <v>143.5693437416134</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9292841869258</v>
+        <v>513.9284416238794</v>
       </c>
       <c r="L4" t="n">
-        <v>5.965325850844137</v>
+        <v>29.74723093773908</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8771460296188622</v>
+        <v>0.8781346803325433</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.509090909090909</v>
+        <v>0.1270491803278689</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2033194085107304</v>
+        <v>0.5459931651679112</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9921572635104856</v>
+        <v>0.95275562544588</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>855</v>
+        <v>1846</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B5" t="n">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
-        <v>350</v>
+        <v>258</v>
       </c>
       <c r="D5" t="n">
-        <v>2.984217285363688</v>
+        <v>2.490418004924489</v>
       </c>
       <c r="E5" t="n">
-        <v>2.266384128474198</v>
+        <v>1.752039085176132</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7178331568894899</v>
+        <v>-0.7383789197483569</v>
       </c>
       <c r="G5" t="n">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="H5" t="n">
-        <v>69.3382427530897</v>
+        <v>45.14073025719205</v>
       </c>
       <c r="I5" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K5" t="n">
-        <v>316.3787077886835</v>
+        <v>192.6986005093816</v>
       </c>
       <c r="L5" t="n">
-        <v>12.86030301970109</v>
+        <v>5.41259403244539</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6778521382833327</v>
+        <v>0.9551841806098205</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5892857142857143</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4834174390195556</v>
+        <v>0.2343805304702351</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8348962205645882</v>
+        <v>0.9732820026275422</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>856</v>
+        <v>1847</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>471</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>564</v>
+        <v>163</v>
       </c>
       <c r="D6" t="n">
-        <v>2.325483546358829</v>
+        <v>2.790257018384766</v>
       </c>
       <c r="E6" t="n">
-        <v>1.607650389469339</v>
+        <v>2.155774578264233</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7178331568894899</v>
+        <v>-0.6344824401205331</v>
       </c>
       <c r="G6" t="n">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="H6" t="n">
-        <v>83.98235427301023</v>
+        <v>37.49935523942847</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J6" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="K6" t="n">
-        <v>202.3464205404899</v>
+        <v>265.6761414013007</v>
       </c>
       <c r="L6" t="n">
-        <v>10.02153000727591</v>
+        <v>6.677080288694613</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7804922373499101</v>
+        <v>0.6631902094090257</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08385744751840714</v>
+        <v>0.1855414325131179</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8527121135899425</v>
+        <v>0.6873022616909334</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>857</v>
+        <v>1848</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130</v>
+        <v>1306</v>
       </c>
       <c r="B7" t="n">
-        <v>159</v>
+        <v>1361</v>
       </c>
       <c r="C7" t="n">
-        <v>325</v>
+        <v>1598</v>
       </c>
       <c r="D7" t="n">
-        <v>2.716349211633539</v>
+        <v>1.973665397141735</v>
       </c>
       <c r="E7" t="n">
-        <v>2.172373480411379</v>
+        <v>1.450824384982512</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5439757312221601</v>
+        <v>-0.5228410121592233</v>
       </c>
       <c r="G7" t="n">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="H7" t="n">
-        <v>108.2638228543568</v>
+        <v>57.4197962321673</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J7" t="n">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="K7" t="n">
-        <v>318.5395259972635</v>
+        <v>238.8775530812339</v>
       </c>
       <c r="L7" t="n">
-        <v>8.245452538444637</v>
+        <v>3.954748992365536</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8847111464945875</v>
+        <v>0.6956756127960237</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1746987951807229</v>
+        <v>0.2320675105485232</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2305037041713713</v>
+        <v>0.3412386832145732</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9122375765856715</v>
+        <v>0.4344097781903778</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>858</v>
+        <v>1849</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1495</v>
+        <v>1174</v>
       </c>
       <c r="B8" t="n">
-        <v>1523</v>
+        <v>1205</v>
       </c>
       <c r="C8" t="n">
-        <v>1598</v>
+        <v>1274</v>
       </c>
       <c r="D8" t="n">
-        <v>2.494658845326113</v>
+        <v>2.481872295275941</v>
       </c>
       <c r="E8" t="n">
-        <v>1.950683114103953</v>
+        <v>1.756685090381525</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5439757312221601</v>
+        <v>-0.7251872048944165</v>
       </c>
       <c r="G8" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>32.97568874992089</v>
+        <v>154.0912755466818</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K8" t="n">
-        <v>106.9809421478554</v>
+        <v>157.9567927981743</v>
       </c>
       <c r="L8" t="n">
-        <v>7.572513512125921</v>
+        <v>7.477849420222746</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.9155956814805527</v>
+        <v>0.8274308626149566</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3733333333333334</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4528974123964843</v>
+        <v>0.3543141447427953</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9691510186735081</v>
+        <v>0.9492566676653208</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>859</v>
+        <v>1850</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>476</v>
+        <v>1274</v>
       </c>
       <c r="B9" t="n">
-        <v>506</v>
+        <v>1300</v>
       </c>
       <c r="C9" t="n">
-        <v>571</v>
+        <v>1358</v>
       </c>
       <c r="D9" t="n">
-        <v>2.757819402583347</v>
+        <v>1.968237504668918</v>
       </c>
       <c r="E9" t="n">
-        <v>2.258368287075416</v>
+        <v>1.243050299774501</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4994511155079309</v>
+        <v>-0.7251872048944165</v>
       </c>
       <c r="G9" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H9" t="n">
-        <v>28.51974616973973</v>
+        <v>31.68567628988308</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K9" t="n">
-        <v>187.8135720006951</v>
+        <v>115.8361827180667</v>
       </c>
       <c r="L9" t="n">
-        <v>8.335647417918601</v>
+        <v>5.930274378405407</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7123495431345696</v>
+        <v>0.8786617464690754</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1782664697880499</v>
+        <v>0.1811067494308767</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4333663188121292</v>
+        <v>0.9877762661857107</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>860</v>
+        <v>1851</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>115</v>
+        <v>1279</v>
       </c>
       <c r="B10" t="n">
-        <v>153</v>
+        <v>1299</v>
       </c>
       <c r="C10" t="n">
-        <v>301</v>
+        <v>1364</v>
       </c>
       <c r="D10" t="n">
-        <v>4.264368221968336</v>
+        <v>1.720035985906983</v>
       </c>
       <c r="E10" t="n">
-        <v>3.735197601300457</v>
+        <v>1.056119302903721</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5291706206678791</v>
+        <v>-0.6639166830032628</v>
       </c>
       <c r="G10" t="n">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="H10" t="n">
-        <v>129.9098498314187</v>
+        <v>69.22879461624552</v>
       </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="K10" t="n">
-        <v>435.8816230062878</v>
+        <v>82.16604511116331</v>
       </c>
       <c r="L10" t="n">
-        <v>13.62796459655115</v>
+        <v>5.783412600634771</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.9152985383509878</v>
+        <v>0.9164188445028942</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2567567567567567</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2155105014556135</v>
+        <v>0.2308614167463598</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9527755115428735</v>
+        <v>0.9820218600179612</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>861</v>
+        <v>1852</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1334,37 +1334,37 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>2.750575601505374</v>
+        <v>3.090474745661367</v>
       </c>
       <c r="E11" t="n">
-        <v>2.168375856122069</v>
+        <v>2.537964754489579</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5821997453833042</v>
+        <v>-0.5525099911717883</v>
       </c>
       <c r="G11" t="n">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
-        <v>48.42034202200894</v>
+        <v>7.130117103880265</v>
       </c>
       <c r="I11" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="K11" t="n">
-        <v>299.0369088797356</v>
+        <v>63.2823496934685</v>
       </c>
       <c r="L11" t="n">
-        <v>10.44697339852757</v>
+        <v>17.47908117046149</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.582490107661144</v>
+        <v>0.8847355222763283</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5066666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5674151565419526</v>
+        <v>0.3328822657915216</v>
       </c>
       <c r="S11" t="n">
-        <v>0.719591976482655</v>
+        <v>0.9531996497355502</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>862</v>
+        <v>1853</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1106</v>
+        <v>164</v>
       </c>
       <c r="B12" t="n">
-        <v>1135</v>
+        <v>209</v>
       </c>
       <c r="C12" t="n">
-        <v>1272</v>
+        <v>286</v>
       </c>
       <c r="D12" t="n">
-        <v>2.834048583297737</v>
+        <v>3.198064596022928</v>
       </c>
       <c r="E12" t="n">
-        <v>2.251848837914433</v>
+        <v>2.683154842973087</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5821997453833042</v>
+        <v>-0.5149097530498417</v>
       </c>
       <c r="G12" t="n">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="H12" t="n">
-        <v>48.02814490828973</v>
+        <v>156.4442011884831</v>
       </c>
       <c r="I12" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J12" t="n">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="K12" t="n">
-        <v>210.3985240569003</v>
+        <v>275.1187748154322</v>
       </c>
       <c r="L12" t="n">
-        <v>10.76401250110789</v>
+        <v>7.869768242931186</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8832888256203572</v>
+        <v>0.5877797228074113</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2116788321167883</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3579245918137577</v>
+        <v>0.1666503604331253</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8378515112953558</v>
+        <v>0.6923007696843271</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>863</v>
+        <v>1854</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1469</v>
+        <v>212</v>
       </c>
       <c r="B13" t="n">
-        <v>1507</v>
+        <v>233</v>
       </c>
       <c r="C13" t="n">
-        <v>1598</v>
+        <v>338</v>
       </c>
       <c r="D13" t="n">
-        <v>5.682838868529254</v>
+        <v>3.036590632298878</v>
       </c>
       <c r="E13" t="n">
-        <v>5.29628270654058</v>
+        <v>2.306665529330171</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3865561619886736</v>
+        <v>-0.7299251029687077</v>
       </c>
       <c r="G13" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H13" t="n">
-        <v>53.4460439688105</v>
+        <v>18.27554671004737</v>
       </c>
       <c r="I13" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J13" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K13" t="n">
-        <v>378.6849627949437</v>
+        <v>211.2986536070701</v>
       </c>
       <c r="L13" t="n">
-        <v>22.15816314575259</v>
+        <v>13.03736356792659</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8886370762502058</v>
+        <v>0.8077219782126425</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4175824175824176</v>
+        <v>0.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0.202172025359272</v>
+        <v>0.4527347130744555</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9262036694793873</v>
+        <v>0.8360761908694909</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>864</v>
+        <v>1855</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1016</v>
+        <v>448</v>
       </c>
       <c r="B14" t="n">
-        <v>1083</v>
+        <v>473</v>
       </c>
       <c r="C14" t="n">
-        <v>1212</v>
+        <v>565</v>
       </c>
       <c r="D14" t="n">
-        <v>4.171361791070996</v>
+        <v>2.434714855816924</v>
       </c>
       <c r="E14" t="n">
-        <v>3.466530465355435</v>
+        <v>1.704789752848217</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7048313257155617</v>
+        <v>-0.7299251029687077</v>
       </c>
       <c r="G14" t="n">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="H14" t="n">
-        <v>78.44331316844205</v>
+        <v>80.76613917309936</v>
       </c>
       <c r="I14" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="K14" t="n">
-        <v>442.0670766408354</v>
+        <v>199.1080855180376</v>
       </c>
       <c r="L14" t="n">
-        <v>17.86124324025025</v>
+        <v>10.45325715685503</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8597822264623005</v>
+        <v>0.8302295505643652</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5193798449612403</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2753388128089642</v>
+        <v>0.1371691785786085</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8760606514292107</v>
+        <v>0.85007705116596</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>865</v>
+        <v>1856</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1263</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1287</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>1345</v>
+        <v>193</v>
       </c>
       <c r="D15" t="n">
-        <v>1.554072680106209</v>
+        <v>4.757445768210301</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8492413543906472</v>
+        <v>4.235351732650587</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7048313257155617</v>
+        <v>-0.5220940355597146</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="H15" t="n">
-        <v>24.36275670031932</v>
+        <v>87.57690189062971</v>
       </c>
       <c r="I15" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="J15" t="n">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="K15" t="n">
-        <v>86.02935935079748</v>
+        <v>424.5595519475233</v>
       </c>
       <c r="L15" t="n">
-        <v>6.654342524741264</v>
+        <v>22.81824928725804</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7990847159643193</v>
+        <v>0.8193871642636716</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4621212121212121</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1865420843571986</v>
+        <v>0.520703147067309</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7117879010795276</v>
+        <v>0.8764488316006402</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>866</v>
+        <v>1857</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1345</v>
+        <v>132</v>
       </c>
       <c r="B16" t="n">
-        <v>1383</v>
+        <v>159</v>
       </c>
       <c r="C16" t="n">
-        <v>1598</v>
+        <v>327</v>
       </c>
       <c r="D16" t="n">
-        <v>1.867004297626256</v>
+        <v>2.677944797475357</v>
       </c>
       <c r="E16" t="n">
-        <v>1.162172971910694</v>
+        <v>2.140363637294852</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7048313257155617</v>
+        <v>-0.5375811601805046</v>
       </c>
       <c r="G16" t="n">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="H16" t="n">
-        <v>47.61682560341046</v>
+        <v>108.9623592703925</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="K16" t="n">
-        <v>199.1196587898436</v>
+        <v>319.0808377657346</v>
       </c>
       <c r="L16" t="n">
-        <v>7.99427610471862</v>
+        <v>8.104913353538704</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7894375577289137</v>
+        <v>0.8467194199379119</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1767441860465116</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="R16" t="n">
-        <v>0.440077693151481</v>
+        <v>0.1851827256047489</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7191005319628987</v>
+        <v>0.9141399186335415</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>867</v>
+        <v>1858</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>765</v>
+        <v>1497</v>
       </c>
       <c r="B17" t="n">
-        <v>802</v>
+        <v>1521</v>
       </c>
       <c r="C17" t="n">
-        <v>912</v>
+        <v>1598</v>
       </c>
       <c r="D17" t="n">
-        <v>2.327527761786476</v>
+        <v>2.640123115328849</v>
       </c>
       <c r="E17" t="n">
-        <v>1.732374729814051</v>
+        <v>2.102541955148344</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5951530319724246</v>
+        <v>-0.5375811601805046</v>
       </c>
       <c r="G17" t="n">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="H17" t="n">
-        <v>102.281318475895</v>
+        <v>30.61253876298883</v>
       </c>
       <c r="I17" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J17" t="n">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="K17" t="n">
-        <v>212.3533328260121</v>
+        <v>106.3931882536914</v>
       </c>
       <c r="L17" t="n">
-        <v>6.462021155259285</v>
+        <v>7.99044443059021</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8363488016569094</v>
+        <v>0.9377766306046965</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3363636363636364</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3667543126223233</v>
+        <v>0.4524467413743926</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6523317627458091</v>
+        <v>0.9696818669463303</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>868</v>
+        <v>1859</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,85 +1933,1891 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>625</v>
+        <v>1225</v>
       </c>
       <c r="B18" t="n">
-        <v>651</v>
+        <v>1253</v>
       </c>
       <c r="C18" t="n">
-        <v>881</v>
+        <v>1338</v>
       </c>
       <c r="D18" t="n">
-        <v>2.75096269821709</v>
+        <v>3.543959250507549</v>
       </c>
       <c r="E18" t="n">
-        <v>2.328916316563199</v>
+        <v>3.03672029022411</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4220463816538914</v>
+        <v>-0.5072389602834383</v>
       </c>
       <c r="G18" t="n">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="H18" t="n">
-        <v>65.52927239448559</v>
+        <v>86.45647660261125</v>
       </c>
       <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>85</v>
+      </c>
+      <c r="K18" t="n">
+        <v>212.3028005685466</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10.4917387022312</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8415768050311054</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3294117647058823</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.376518292052368</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.6809983862951554</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>1860</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57</v>
+      </c>
+      <c r="C19" t="n">
+        <v>106</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.360599798638988</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8836920301370684</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.4769077685019193</v>
+      </c>
+      <c r="G19" t="n">
+        <v>74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>42.69277191311399</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>49</v>
+      </c>
+      <c r="K19" t="n">
+        <v>51.06442480515184</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11.99189833059359</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0.7891286313083107</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1772916739931839</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8953778336555021</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>1861</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>116</v>
+      </c>
+      <c r="B20" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" t="n">
+        <v>296</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.337542928095147</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.803512546936043</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.5340303811591045</v>
+      </c>
+      <c r="G20" t="n">
+        <v>180</v>
+      </c>
+      <c r="H20" t="n">
+        <v>127.7916531488075</v>
+      </c>
+      <c r="I20" t="n">
+        <v>34</v>
+      </c>
+      <c r="J20" t="n">
+        <v>146</v>
+      </c>
+      <c r="K20" t="n">
+        <v>432.090177482391</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13.80565020831602</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8870817787853631</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2328767123287671</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2013031453618088</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.9436894502329318</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>1862</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.2983186030014</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.718186101448878</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.5801325015525218</v>
+      </c>
+      <c r="G21" t="n">
+        <v>35</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15.1308505372923</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
         <v>26</v>
       </c>
-      <c r="J18" t="n">
-        <v>230</v>
-      </c>
-      <c r="K18" t="n">
-        <v>316.0592136252145</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.150943988530989</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(742), 'value': np.float64(1.884071124486166), 'amplitude': np.float64(2.3061175061400574), 'start_idx': np.int64(710), 'end_idx': np.int64(790), 'duration': np.float64(80.0), 'fwhm': np.float64(32.322298584319356), 'rise_time': np.float64(32.0), 'decay_time': np.float64(48.0), 'auc': np.float64(119.10587197355747)}]</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>0.8110734482738642</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.1130434782608696</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.268734516634572</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.7860014445820644</v>
-      </c>
-      <c r="T18" t="inlineStr">
+      <c r="K21" t="n">
+        <v>67.47483433158169</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.714463075692942</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8667224024625403</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1353498229290702</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.9806667992689715</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>1863</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35</v>
+      </c>
+      <c r="B22" t="n">
+        <v>70</v>
+      </c>
+      <c r="C22" t="n">
+        <v>226</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.71934015911835</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.139207657565829</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.5801325015525218</v>
+      </c>
+      <c r="G22" t="n">
+        <v>191</v>
+      </c>
+      <c r="H22" t="n">
+        <v>47.59876977842054</v>
+      </c>
+      <c r="I22" t="n">
+        <v>35</v>
+      </c>
+      <c r="J22" t="n">
+        <v>156</v>
+      </c>
+      <c r="K22" t="n">
+        <v>230.6454421210402</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10.31083739910511</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8398976882617204</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2243589743589744</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5504482879517816</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.7056287698287114</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>1864</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1133</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.896817807099604</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.316685305547082</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.5801325015525218</v>
+      </c>
+      <c r="G23" t="n">
+        <v>132</v>
+      </c>
+      <c r="H23" t="n">
+        <v>47.83642214511406</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26</v>
+      </c>
+      <c r="J23" t="n">
+        <v>106</v>
+      </c>
+      <c r="K23" t="n">
+        <v>187.2137042787043</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10.983773870173</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0.9516921223972278</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.2798400077264552</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.91105965975782</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>1865</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>552</v>
+      </c>
+      <c r="B24" t="n">
+        <v>582</v>
+      </c>
+      <c r="C24" t="n">
+        <v>768</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.632878472808733</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.162740899105245</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.4701375737034882</v>
+      </c>
+      <c r="G24" t="n">
+        <v>216</v>
+      </c>
+      <c r="H24" t="n">
+        <v>155.604714083797</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" t="n">
+        <v>186</v>
+      </c>
+      <c r="K24" t="n">
+        <v>460.351362479561</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8.66925559207683</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8437460276970349</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.2725512224185803</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.8272620988472312</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>1866</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>768</v>
+      </c>
+      <c r="B25" t="n">
+        <v>801</v>
+      </c>
+      <c r="C25" t="n">
+        <v>914</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.762595002167762</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.292457428464274</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.4701375737034882</v>
+      </c>
+      <c r="G25" t="n">
+        <v>146</v>
+      </c>
+      <c r="H25" t="n">
+        <v>94.22427834275766</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>113</v>
+      </c>
+      <c r="K25" t="n">
+        <v>182.5384254066613</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.206137555516859</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8103822064410557</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2920353982300885</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1503591078416674</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.6975849979300335</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>1867</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>618</v>
+      </c>
+      <c r="B26" t="n">
+        <v>654</v>
+      </c>
+      <c r="C26" t="n">
+        <v>770</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.595280005366281</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.145194987853898</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.4500850175123827</v>
+      </c>
+      <c r="G26" t="n">
+        <v>152</v>
+      </c>
+      <c r="H26" t="n">
+        <v>88.15657693640378</v>
+      </c>
+      <c r="I26" t="n">
+        <v>36</v>
+      </c>
+      <c r="J26" t="n">
+        <v>116</v>
+      </c>
+      <c r="K26" t="n">
+        <v>391.5766425803435</v>
+      </c>
+      <c r="L26" t="n">
+        <v>16.80318379309987</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8042536025736597</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.09235217832302774</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.922199348347633</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>1868</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1472</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1505</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.725148326103954</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.338762216832283</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.3863861092716718</v>
+      </c>
+      <c r="G27" t="n">
+        <v>126</v>
+      </c>
+      <c r="H27" t="n">
+        <v>52.28798237051251</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>93</v>
+      </c>
+      <c r="K27" t="n">
+        <v>377.864923320316</v>
+      </c>
+      <c r="L27" t="n">
+        <v>21.97714364365119</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0.9074379081142039</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1911664168747816</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.9289620697441467</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>1869</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.255937498283394</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.556909309920457</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.6990281883629371</v>
+      </c>
+      <c r="G28" t="n">
+        <v>197</v>
+      </c>
+      <c r="H28" t="n">
+        <v>76.16631753184333</v>
+      </c>
+      <c r="I28" t="n">
+        <v>64</v>
+      </c>
+      <c r="J28" t="n">
+        <v>133</v>
+      </c>
+      <c r="K28" t="n">
+        <v>444.1339692407688</v>
+      </c>
+      <c r="L28" t="n">
+        <v>18.01380457580081</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8781232270649109</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.481203007518797</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.2583149409565306</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8716488357758344</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>1870</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1347</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.579204345714325</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8801761573513884</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.6990281883629371</v>
+      </c>
+      <c r="G29" t="n">
+        <v>81</v>
+      </c>
+      <c r="H29" t="n">
+        <v>23.17401646275403</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+      <c r="J29" t="n">
+        <v>61</v>
+      </c>
+      <c r="K29" t="n">
+        <v>84.5019696627818</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.684186147100926</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8318071280714016</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1922173881808924</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.6797293635883579</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>1871</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1347</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.884695466491544</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.185667278128607</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.6990281883629371</v>
+      </c>
+      <c r="G30" t="n">
+        <v>251</v>
+      </c>
+      <c r="H30" t="n">
+        <v>46.19070679903211</v>
+      </c>
+      <c r="I30" t="n">
+        <v>33</v>
+      </c>
+      <c r="J30" t="n">
+        <v>218</v>
+      </c>
+      <c r="K30" t="n">
+        <v>196.0415127717993</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.97721673120673</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7743404928804639</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.1513761467889908</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.4219201641748198</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.710607684947524</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>1872</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>769</v>
+      </c>
+      <c r="B31" t="n">
+        <v>802</v>
+      </c>
+      <c r="C31" t="n">
+        <v>911</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.337477759050697</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.739923488206899</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.5975542708437985</v>
+      </c>
+      <c r="G31" t="n">
+        <v>142</v>
+      </c>
+      <c r="H31" t="n">
+        <v>102.5001394680307</v>
+      </c>
+      <c r="I31" t="n">
+        <v>33</v>
+      </c>
+      <c r="J31" t="n">
+        <v>109</v>
+      </c>
+      <c r="K31" t="n">
+        <v>212.4270303592928</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.549270486885605</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.848592066341475</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.3027522935779817</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.3049516242691451</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.6373749728884874</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1873</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1478</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.344771013241285</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.747216742397487</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.5975542708437985</v>
+      </c>
+      <c r="G32" t="n">
+        <v>120</v>
+      </c>
+      <c r="H32" t="n">
+        <v>52.81983452771237</v>
+      </c>
+      <c r="I32" t="n">
+        <v>28</v>
+      </c>
+      <c r="J32" t="n">
+        <v>92</v>
+      </c>
+      <c r="K32" t="n">
+        <v>161.2545098699262</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.569705117435061</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8879824039540466</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1635518740441868</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.8739886741323901</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>1874</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>380</v>
+      </c>
+      <c r="B33" t="n">
+        <v>403</v>
+      </c>
+      <c r="C33" t="n">
+        <v>545</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.979320840190987</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.103196060001983</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.8761247801890034</v>
+      </c>
+      <c r="G33" t="n">
+        <v>165</v>
+      </c>
+      <c r="H33" t="n">
+        <v>53.33169873270901</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23</v>
+      </c>
+      <c r="J33" t="n">
+        <v>142</v>
+      </c>
+      <c r="K33" t="n">
+        <v>204.5533593721254</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.147868869549533</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8783167921657732</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.1619718309859155</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2896185483251266</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.8437931461667744</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>1875</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>900</v>
+      </c>
+      <c r="B34" t="n">
+        <v>947</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.611197909527879</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.735073129338876</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.8761247801890034</v>
+      </c>
+      <c r="G34" t="n">
+        <v>165</v>
+      </c>
+      <c r="H34" t="n">
+        <v>41.19732018968728</v>
+      </c>
+      <c r="I34" t="n">
+        <v>47</v>
+      </c>
+      <c r="J34" t="n">
+        <v>118</v>
+      </c>
+      <c r="K34" t="n">
+        <v>298.4047662004214</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.791271105595163</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.6906863728574185</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.3983050847457627</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1604344358762043</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.4065544803300903</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1876</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.601864456318895</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7257396761298914</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.8761247801890034</v>
+      </c>
+      <c r="G35" t="n">
+        <v>141</v>
+      </c>
+      <c r="H35" t="n">
+        <v>34.47975199507937</v>
+      </c>
+      <c r="I35" t="n">
+        <v>46</v>
+      </c>
+      <c r="J35" t="n">
+        <v>95</v>
+      </c>
+      <c r="K35" t="n">
+        <v>109.6134346498033</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.166170537125373</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.708989800560706</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.4842105263157895</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.5172652370913892</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7502355531132741</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>1877</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>626</v>
+      </c>
+      <c r="B36" t="n">
+        <v>654</v>
+      </c>
+      <c r="C36" t="n">
+        <v>712</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.711666350593469</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.285429853481765</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.4262364971117043</v>
+      </c>
+      <c r="G36" t="n">
+        <v>86</v>
+      </c>
+      <c r="H36" t="n">
+        <v>72.21969915220768</v>
+      </c>
+      <c r="I36" t="n">
+        <v>28</v>
+      </c>
+      <c r="J36" t="n">
+        <v>58</v>
+      </c>
+      <c r="K36" t="n">
+        <v>168.1114239296049</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.870739743367884</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7697521304409602</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1624905594420805</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9141651963965807</v>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>n41</t>
         </is>
       </c>
-      <c r="U18" t="n">
-        <v>869</v>
-      </c>
-      <c r="V18" t="inlineStr">
+      <c r="U36" t="n">
+        <v>1878</v>
+      </c>
+      <c r="V36" t="inlineStr">
         <is>
           <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34</v>
+      </c>
+      <c r="C37" t="n">
+        <v>112</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.697746810973869</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.24439976041798</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.4533470505558888</v>
+      </c>
+      <c r="G37" t="n">
+        <v>97</v>
+      </c>
+      <c r="H37" t="n">
+        <v>27.82091583685935</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>78</v>
+      </c>
+      <c r="K37" t="n">
+        <v>79.56875382831383</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.173033311516445</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.9039584165557317</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.2435897435897436</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2374329616055824</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.864427070100198</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1879</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112</v>
+      </c>
+      <c r="B38" t="n">
+        <v>145</v>
+      </c>
+      <c r="C38" t="n">
+        <v>231</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.1079084512141</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.654561400658211</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.4533470505558888</v>
+      </c>
+      <c r="G38" t="n">
+        <v>119</v>
+      </c>
+      <c r="H38" t="n">
+        <v>92.26031797708956</v>
+      </c>
+      <c r="I38" t="n">
+        <v>33</v>
+      </c>
+      <c r="J38" t="n">
+        <v>86</v>
+      </c>
+      <c r="K38" t="n">
+        <v>225.272524719928</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.639187075616034</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8573566121359004</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.3837209302325582</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.454036875627116</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.8740454227532106</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1880</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>231</v>
+      </c>
+      <c r="B39" t="n">
+        <v>248</v>
+      </c>
+      <c r="C39" t="n">
+        <v>275</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.029828832689972</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.576481782134084</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.4533470505558888</v>
+      </c>
+      <c r="G39" t="n">
+        <v>44</v>
+      </c>
+      <c r="H39" t="n">
+        <v>18.96672444276115</v>
+      </c>
+      <c r="I39" t="n">
+        <v>17</v>
+      </c>
+      <c r="J39" t="n">
+        <v>27</v>
+      </c>
+      <c r="K39" t="n">
+        <v>61.50336024859615</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.989285375616688</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8253767776985634</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.2382340044344321</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.9237346925206903</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1881</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>269</v>
+        <v>1418</v>
       </c>
       <c r="B2" t="n">
-        <v>298</v>
+        <v>1466</v>
       </c>
       <c r="C2" t="n">
-        <v>358</v>
+        <v>1541</v>
       </c>
       <c r="D2" t="n">
-        <v>1.317497161348862</v>
+        <v>3.217380334441474</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7016417818114008</v>
+        <v>2.603103311289598</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6158553795374613</v>
+        <v>-0.6142770231518763</v>
       </c>
       <c r="G2" t="n">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="H2" t="n">
-        <v>65.96776276811261</v>
+        <v>51.43036150187777</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>64.60918415354558</v>
+        <v>256.1618104600355</v>
       </c>
       <c r="L2" t="n">
-        <v>3.587707325302956</v>
+        <v>8.761745822110173</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.752619838156003</v>
+        <v>0.7025822843395713</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.64</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1517051623806392</v>
+        <v>0.151170445461463</v>
       </c>
       <c r="S2" t="n">
-        <v>0.857769725375032</v>
+        <v>0.966192818391343</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1844</v>
+        <v>1470</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1418</v>
+        <v>817</v>
       </c>
       <c r="B3" t="n">
-        <v>1465</v>
+        <v>848</v>
       </c>
       <c r="C3" t="n">
-        <v>1542</v>
+        <v>1091</v>
       </c>
       <c r="D3" t="n">
-        <v>3.213192699351634</v>
+        <v>4.281908248172422</v>
       </c>
       <c r="E3" t="n">
-        <v>2.597337319814172</v>
+        <v>3.815046309966192</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6158553795374613</v>
+        <v>-0.4668619382062297</v>
       </c>
       <c r="G3" t="n">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="H3" t="n">
-        <v>51.20494846239535</v>
+        <v>143.1093314636524</v>
       </c>
       <c r="I3" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="K3" t="n">
-        <v>257.6124616617224</v>
+        <v>511.066413958997</v>
       </c>
       <c r="L3" t="n">
-        <v>8.749920169293874</v>
+        <v>29.89975158798851</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7019569083801507</v>
+        <v>0.8785246862133129</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.1275720164609054</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1419373604230963</v>
+        <v>0.5534044008020266</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9624961106018118</v>
+        <v>0.9537219885231709</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1845</v>
+        <v>1471</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>816</v>
+        <v>121</v>
       </c>
       <c r="B4" t="n">
-        <v>847</v>
+        <v>154</v>
       </c>
       <c r="C4" t="n">
-        <v>1091</v>
+        <v>258</v>
       </c>
       <c r="D4" t="n">
-        <v>4.275812113455738</v>
+        <v>2.494308821717878</v>
       </c>
       <c r="E4" t="n">
-        <v>3.809384219084642</v>
+        <v>1.754201677628066</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4664278943710961</v>
+        <v>-0.740107144089812</v>
       </c>
       <c r="G4" t="n">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="H4" t="n">
-        <v>143.5693437416134</v>
+        <v>45.22375888537857</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="K4" t="n">
-        <v>513.9284416238794</v>
+        <v>192.921842681986</v>
       </c>
       <c r="L4" t="n">
-        <v>29.74723093773908</v>
+        <v>5.42255685810059</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8781346803325433</v>
+        <v>0.9488195461274065</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1270491803278689</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5459931651679112</v>
+        <v>0.2512547096338059</v>
       </c>
       <c r="S4" t="n">
-        <v>0.95275562544588</v>
+        <v>0.9730390963543685</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1846</v>
+        <v>1472</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>2.490418004924489</v>
+        <v>2.754764675294733</v>
       </c>
       <c r="E5" t="n">
-        <v>1.752039085176132</v>
+        <v>2.123153926383924</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7383789197483569</v>
+        <v>-0.6316107489108096</v>
       </c>
       <c r="G5" t="n">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="H5" t="n">
-        <v>45.14073025719205</v>
+        <v>38.59721235559238</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="J5" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K5" t="n">
-        <v>192.6986005093816</v>
+        <v>265.4263088718195</v>
       </c>
       <c r="L5" t="n">
-        <v>5.41259403244539</v>
+        <v>6.596245452229122</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.9551841806098205</v>
+        <v>0.6409263433815461</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3047619047619048</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2343805304702351</v>
+        <v>0.1840561122448187</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9732820026275422</v>
+        <v>0.6909847384910056</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1847</v>
+        <v>1473</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>1362</v>
       </c>
       <c r="C6" t="n">
-        <v>163</v>
+        <v>1598</v>
       </c>
       <c r="D6" t="n">
-        <v>2.790257018384766</v>
+        <v>1.938079920819605</v>
       </c>
       <c r="E6" t="n">
-        <v>2.155774578264233</v>
+        <v>1.418786093181209</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6344824401205331</v>
+        <v>-0.5192938276383958</v>
       </c>
       <c r="G6" t="n">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="H6" t="n">
-        <v>37.49935523942847</v>
+        <v>58.41263886975798</v>
       </c>
       <c r="I6" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J6" t="n">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="K6" t="n">
-        <v>265.6761414013007</v>
+        <v>237.9670709025665</v>
       </c>
       <c r="L6" t="n">
-        <v>6.677080288694613</v>
+        <v>3.892627773430391</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.6631902094090257</v>
+        <v>0.7054357181954735</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4954128440366973</v>
+        <v>0.2415254237288136</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1855414325131179</v>
+        <v>0.3625111545136695</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6873022616909334</v>
+        <v>0.4408180768500185</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1848</v>
+        <v>1474</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1306</v>
+        <v>429</v>
       </c>
       <c r="B7" t="n">
-        <v>1361</v>
+        <v>465</v>
       </c>
       <c r="C7" t="n">
-        <v>1598</v>
+        <v>536</v>
       </c>
       <c r="D7" t="n">
-        <v>1.973665397141735</v>
+        <v>2.745314587362538</v>
       </c>
       <c r="E7" t="n">
-        <v>1.450824384982512</v>
+        <v>2.019885799647508</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5228410121592233</v>
+        <v>-0.7254287877150302</v>
       </c>
       <c r="G7" t="n">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="H7" t="n">
-        <v>57.4197962321673</v>
+        <v>36.05631919913191</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="K7" t="n">
-        <v>238.8775530812339</v>
+        <v>243.8084707135203</v>
       </c>
       <c r="L7" t="n">
-        <v>3.954748992365536</v>
+        <v>8.294443066282222</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.6956756127960237</v>
+        <v>0.6838048380323831</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2320675105485232</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3412386832145732</v>
+        <v>0.1550574532950572</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4344097781903778</v>
+        <v>0.3948226904402726</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1849</v>
+        <v>1475</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B8" t="n">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C8" t="n">
         <v>1274</v>
       </c>
       <c r="D8" t="n">
-        <v>2.481872295275941</v>
+        <v>2.465428340821731</v>
       </c>
       <c r="E8" t="n">
-        <v>1.756685090381525</v>
+        <v>1.739999553106701</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7251872048944165</v>
+        <v>-0.7254287877150302</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8" t="n">
-        <v>154.0912755466818</v>
+        <v>154.6121816675577</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" t="n">
-        <v>157.9567927981743</v>
+        <v>158.2848532125619</v>
       </c>
       <c r="L8" t="n">
-        <v>7.477849420222746</v>
+        <v>7.448820292245804</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8274308626149566</v>
+        <v>0.8139756591501982</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4492753623188406</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3543141447427953</v>
+        <v>0.360833154923886</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9492566676653208</v>
+        <v>0.9506735281655312</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1850</v>
+        <v>1476</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1162,37 +1162,37 @@
         <v>1274</v>
       </c>
       <c r="B9" t="n">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C9" t="n">
         <v>1358</v>
       </c>
       <c r="D9" t="n">
-        <v>1.968237504668918</v>
+        <v>1.966464783258725</v>
       </c>
       <c r="E9" t="n">
-        <v>1.243050299774501</v>
+        <v>1.241035995543694</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7251872048944165</v>
+        <v>-0.7254287877150302</v>
       </c>
       <c r="G9" t="n">
         <v>84</v>
       </c>
       <c r="H9" t="n">
-        <v>31.68567628988308</v>
+        <v>32.01759449234851</v>
       </c>
       <c r="I9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>115.8361827180667</v>
+        <v>115.8499109330837</v>
       </c>
       <c r="L9" t="n">
-        <v>5.930274378405407</v>
+        <v>5.941297314949412</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8786617464690754</v>
+        <v>0.887296815122024</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1811067494308767</v>
+        <v>0.209292148840543</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9877762661857107</v>
+        <v>0.9919240082233252</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1851</v>
+        <v>1477</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B10" t="n">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C10" t="n">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D10" t="n">
-        <v>1.720035985906983</v>
+        <v>1.702986235480952</v>
       </c>
       <c r="E10" t="n">
-        <v>1.056119302903721</v>
+        <v>1.035372866370905</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6639166830032628</v>
+        <v>-0.6676133691100476</v>
       </c>
       <c r="G10" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="n">
-        <v>69.22879461624552</v>
+        <v>68.89491762695229</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K10" t="n">
-        <v>82.16604511116331</v>
+        <v>81.30713750926617</v>
       </c>
       <c r="L10" t="n">
-        <v>5.783412600634771</v>
+        <v>5.722164299669334</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.9164188445028942</v>
+        <v>0.8928381952940745</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2308614167463598</v>
+        <v>0.2411001791277836</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9820218600179612</v>
+        <v>0.9844628498136428</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1852</v>
+        <v>1478</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="D11" t="n">
-        <v>3.090474745661367</v>
+        <v>3.160913470309751</v>
       </c>
       <c r="E11" t="n">
-        <v>2.537964754489579</v>
+        <v>2.645417619588258</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5525099911717883</v>
+        <v>-0.5154958507214927</v>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="H11" t="n">
-        <v>7.130117103880265</v>
+        <v>158.0758237949536</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="K11" t="n">
-        <v>63.2823496934685</v>
+        <v>277.9546408487489</v>
       </c>
       <c r="L11" t="n">
-        <v>17.47908117046149</v>
+        <v>7.831149705702246</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8847355222763283</v>
+        <v>0.5731956455464956</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3328822657915216</v>
+        <v>0.1536068446437223</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9531996497355502</v>
+        <v>0.727254097822337</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1853</v>
+        <v>1479</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="B12" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="C12" t="n">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="D12" t="n">
-        <v>3.198064596022928</v>
+        <v>2.988729058810855</v>
       </c>
       <c r="E12" t="n">
-        <v>2.683154842973087</v>
+        <v>2.26190569311816</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5149097530498417</v>
+        <v>-0.7268233656926949</v>
       </c>
       <c r="G12" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H12" t="n">
-        <v>156.4442011884831</v>
+        <v>70.19524438779459</v>
       </c>
       <c r="I12" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K12" t="n">
-        <v>275.1187748154322</v>
+        <v>207.7761004859244</v>
       </c>
       <c r="L12" t="n">
-        <v>7.869768242931186</v>
+        <v>12.84334195290391</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.5877797228074113</v>
+        <v>0.8831778857090308</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5844155844155844</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1666503604331253</v>
+        <v>0.4678014604977582</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6923007696843271</v>
+        <v>0.8239966693376313</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1854</v>
+        <v>1480</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>212</v>
+        <v>447</v>
       </c>
       <c r="B13" t="n">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="C13" t="n">
-        <v>338</v>
+        <v>564</v>
       </c>
       <c r="D13" t="n">
-        <v>3.036590632298878</v>
+        <v>2.403430350549504</v>
       </c>
       <c r="E13" t="n">
-        <v>2.306665529330171</v>
+        <v>1.676606984856809</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7299251029687077</v>
+        <v>-0.7268233656926949</v>
       </c>
       <c r="G13" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H13" t="n">
-        <v>18.27554671004737</v>
+        <v>81.19542800711724</v>
       </c>
       <c r="I13" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J13" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K13" t="n">
-        <v>211.2986536070701</v>
+        <v>199.3366413771072</v>
       </c>
       <c r="L13" t="n">
-        <v>13.03736356792659</v>
+        <v>10.32816198614426</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8077219782126425</v>
+        <v>0.8078817274068139</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4527347130744555</v>
+        <v>0.1124974818195414</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8360761908694909</v>
+        <v>0.8517152341401646</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1855</v>
+        <v>1481</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>473</v>
+        <v>62</v>
       </c>
       <c r="C14" t="n">
-        <v>565</v>
+        <v>194</v>
       </c>
       <c r="D14" t="n">
-        <v>2.434714855816924</v>
+        <v>4.752283636296903</v>
       </c>
       <c r="E14" t="n">
-        <v>1.704789752848217</v>
+        <v>4.230471317271798</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7299251029687077</v>
+        <v>-0.5218123190251047</v>
       </c>
       <c r="G14" t="n">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="H14" t="n">
-        <v>80.76613917309936</v>
+        <v>89.15521860848401</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J14" t="n">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="K14" t="n">
-        <v>199.1080855180376</v>
+        <v>425.4407662437749</v>
       </c>
       <c r="L14" t="n">
-        <v>10.45325715685503</v>
+        <v>22.93864717818531</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8302295505643652</v>
+        <v>0.7397749991159649</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2717391304347826</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1371691785786085</v>
+        <v>0.4692924668932251</v>
       </c>
       <c r="S14" t="n">
-        <v>0.85007705116596</v>
+        <v>0.8802659374652863</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1856</v>
+        <v>1482</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="C15" t="n">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="D15" t="n">
-        <v>4.757445768210301</v>
+        <v>2.701072322711279</v>
       </c>
       <c r="E15" t="n">
-        <v>4.235351732650587</v>
+        <v>2.159047534979523</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5220940355597146</v>
+        <v>-0.5420247877317563</v>
       </c>
       <c r="G15" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H15" t="n">
-        <v>87.57690189062971</v>
+        <v>108.7644722259522</v>
       </c>
       <c r="I15" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="K15" t="n">
-        <v>424.5595519475233</v>
+        <v>319.1682307072654</v>
       </c>
       <c r="L15" t="n">
-        <v>22.81824928725804</v>
+        <v>8.1845491174857</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8193871642636716</v>
+        <v>0.8763647186703376</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4621212121212121</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="R15" t="n">
-        <v>0.520703147067309</v>
+        <v>0.2141785913045213</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8764488316006402</v>
+        <v>0.9143974699916373</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1857</v>
+        <v>1483</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>132</v>
+        <v>1496</v>
       </c>
       <c r="B16" t="n">
-        <v>159</v>
+        <v>1521</v>
       </c>
       <c r="C16" t="n">
-        <v>327</v>
+        <v>1598</v>
       </c>
       <c r="D16" t="n">
-        <v>2.677944797475357</v>
+        <v>2.587787594539178</v>
       </c>
       <c r="E16" t="n">
-        <v>2.140363637294852</v>
+        <v>2.045762806807422</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5375811601805046</v>
+        <v>-0.5420247877317563</v>
       </c>
       <c r="G16" t="n">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="H16" t="n">
-        <v>108.9623592703925</v>
+        <v>31.00674958447985</v>
       </c>
       <c r="I16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
-        <v>319.0808377657346</v>
+        <v>106.6690588469584</v>
       </c>
       <c r="L16" t="n">
-        <v>8.104913353538704</v>
+        <v>7.841283809781945</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8467194199379119</v>
+        <v>0.9321869741952926</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1851827256047489</v>
+        <v>0.4350895078619888</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9141399186335415</v>
+        <v>0.9728784064572653</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1858</v>
+        <v>1484</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1497</v>
+        <v>1224</v>
       </c>
       <c r="B17" t="n">
-        <v>1521</v>
+        <v>1253</v>
       </c>
       <c r="C17" t="n">
-        <v>1598</v>
+        <v>1338</v>
       </c>
       <c r="D17" t="n">
-        <v>2.640123115328849</v>
+        <v>3.45879926395435</v>
       </c>
       <c r="E17" t="n">
-        <v>2.102541955148344</v>
+        <v>2.951440722375675</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5375811601805046</v>
+        <v>-0.5073585415786745</v>
       </c>
       <c r="G17" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H17" t="n">
-        <v>30.61253876298883</v>
+        <v>87.32316398272405</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J17" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K17" t="n">
-        <v>106.3931882536914</v>
+        <v>212.6580909788986</v>
       </c>
       <c r="L17" t="n">
-        <v>7.99044443059021</v>
+        <v>10.31578580222941</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.9377766306046965</v>
+        <v>0.838083688623578</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3116883116883117</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4524467413743926</v>
+        <v>0.3747419286227346</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9696818669463303</v>
+        <v>0.6921678022258972</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1859</v>
+        <v>1485</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1225</v>
+        <v>116</v>
       </c>
       <c r="B18" t="n">
-        <v>1253</v>
+        <v>151</v>
       </c>
       <c r="C18" t="n">
-        <v>1338</v>
+        <v>297</v>
       </c>
       <c r="D18" t="n">
-        <v>3.543959250507549</v>
+        <v>4.307589357834091</v>
       </c>
       <c r="E18" t="n">
-        <v>3.03672029022411</v>
+        <v>3.773135452755355</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5072389602834383</v>
+        <v>-0.5344539050787367</v>
       </c>
       <c r="G18" t="n">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="H18" t="n">
-        <v>86.45647660261125</v>
+        <v>128.0439347346505</v>
       </c>
       <c r="I18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="K18" t="n">
-        <v>212.3028005685466</v>
+        <v>433.2026556806904</v>
       </c>
       <c r="L18" t="n">
-        <v>10.4917387022312</v>
+        <v>13.7267185634432</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8415768050311054</v>
+        <v>0.8931325941095321</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3294117647058823</v>
+        <v>0.2397260273972603</v>
       </c>
       <c r="R18" t="n">
-        <v>0.376518292052368</v>
+        <v>0.2033199065168676</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6809983862951554</v>
+        <v>0.9460628555256996</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1860</v>
+        <v>1486</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>1.360599798638988</v>
+        <v>2.327840332667974</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8836920301370684</v>
+        <v>1.744160062425547</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4769077685019193</v>
+        <v>-0.5836802702424274</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="H19" t="n">
-        <v>42.69277191311399</v>
+        <v>15.36618140419724</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="K19" t="n">
-        <v>51.06442480515184</v>
+        <v>67.86067033834172</v>
       </c>
       <c r="L19" t="n">
-        <v>11.99189833059359</v>
+        <v>8.8300651913009</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7891286313083107</v>
+        <v>0.8613449505140015</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1772916739931839</v>
+        <v>0.1306992886624554</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8953778336555021</v>
+        <v>0.9844292715386455</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1861</v>
+        <v>1487</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="D20" t="n">
-        <v>4.337542928095147</v>
+        <v>2.718677241712799</v>
       </c>
       <c r="E20" t="n">
-        <v>3.803512546936043</v>
+        <v>2.134996971470372</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5340303811591045</v>
+        <v>-0.5836802702424274</v>
       </c>
       <c r="G20" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H20" t="n">
-        <v>127.7916531488075</v>
+        <v>48.15193895395019</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J20" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K20" t="n">
-        <v>432.090177482391</v>
+        <v>231.2571642382396</v>
       </c>
       <c r="L20" t="n">
-        <v>13.80565020831602</v>
+        <v>10.3126047527995</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8870817787853631</v>
+        <v>0.8332776736854633</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2328767123287671</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2013031453618088</v>
+        <v>0.5130960897428117</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9436894502329318</v>
+        <v>0.7306287873526311</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1862</v>
+        <v>1488</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>1134</v>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>1238</v>
       </c>
       <c r="D21" t="n">
-        <v>2.2983186030014</v>
+        <v>2.884331375432647</v>
       </c>
       <c r="E21" t="n">
-        <v>1.718186101448878</v>
+        <v>2.30065110519022</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5801325015525218</v>
+        <v>-0.5836802702424274</v>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="H21" t="n">
-        <v>15.1308505372923</v>
+        <v>47.93480571099963</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="K21" t="n">
-        <v>67.47483433158169</v>
+        <v>187.0949515108309</v>
       </c>
       <c r="L21" t="n">
-        <v>8.714463075692942</v>
+        <v>10.94097121738356</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,16 +2240,16 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8667224024625403</v>
+        <v>0.9602295044192604</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1353498229290702</v>
+        <v>0.2828529636876522</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9806667992689715</v>
+        <v>0.9080534207040738</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1863</v>
+        <v>1489</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>35</v>
+        <v>552</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>582</v>
       </c>
       <c r="C22" t="n">
-        <v>226</v>
+        <v>768</v>
       </c>
       <c r="D22" t="n">
-        <v>2.71934015911835</v>
+        <v>3.613248365037225</v>
       </c>
       <c r="E22" t="n">
-        <v>2.139207657565829</v>
+        <v>3.144414322130143</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5801325015525218</v>
+        <v>-0.4688340429070822</v>
       </c>
       <c r="G22" t="n">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="H22" t="n">
-        <v>47.59876977842054</v>
+        <v>158.7901986562738</v>
       </c>
       <c r="I22" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J22" t="n">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="K22" t="n">
-        <v>230.6454421210402</v>
+        <v>460.2227905461542</v>
       </c>
       <c r="L22" t="n">
-        <v>10.31083739910511</v>
+        <v>8.640525766278484</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8398976882617204</v>
+        <v>0.8436810616742341</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2243589743589744</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5504482879517816</v>
+        <v>0.2582577598583635</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7056287698287114</v>
+        <v>0.8314243863754941</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1864</v>
+        <v>1490</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1107</v>
+        <v>1471</v>
       </c>
       <c r="B23" t="n">
-        <v>1133</v>
+        <v>1506</v>
       </c>
       <c r="C23" t="n">
-        <v>1239</v>
+        <v>1598</v>
       </c>
       <c r="D23" t="n">
-        <v>2.896817807099604</v>
+        <v>5.704184939713825</v>
       </c>
       <c r="E23" t="n">
-        <v>2.316685305547082</v>
+        <v>5.318963713719037</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5801325015525218</v>
+        <v>-0.3852212259947881</v>
       </c>
       <c r="G23" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H23" t="n">
-        <v>47.83642214511406</v>
+        <v>52.84065579022422</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J23" t="n">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K23" t="n">
-        <v>187.2137042787043</v>
+        <v>378.00880908785</v>
       </c>
       <c r="L23" t="n">
-        <v>10.983773870173</v>
+        <v>22.0036639351122</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9516921223972278</v>
+        <v>0.9000259029004956</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.3804347826086957</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2798400077264552</v>
+        <v>0.1969710370659087</v>
       </c>
       <c r="S23" t="n">
-        <v>0.91105965975782</v>
+        <v>0.9276539992105034</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1865</v>
+        <v>1491</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>552</v>
+        <v>1017</v>
       </c>
       <c r="B24" t="n">
-        <v>582</v>
+        <v>1083</v>
       </c>
       <c r="C24" t="n">
-        <v>768</v>
+        <v>1215</v>
       </c>
       <c r="D24" t="n">
-        <v>3.632878472808733</v>
+        <v>4.228981566874978</v>
       </c>
       <c r="E24" t="n">
-        <v>3.162740899105245</v>
+        <v>3.525857200123</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4701375737034882</v>
+        <v>-0.7031243667519782</v>
       </c>
       <c r="G24" t="n">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="H24" t="n">
-        <v>155.604714083797</v>
+        <v>76.73584185340792</v>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J24" t="n">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="K24" t="n">
-        <v>460.351362479561</v>
+        <v>444.9293101669302</v>
       </c>
       <c r="L24" t="n">
-        <v>8.66925559207683</v>
+        <v>17.95573268326621</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8437460276970349</v>
+        <v>0.8714326804266188</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.5</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2725512224185803</v>
+        <v>0.2646381622003086</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8272620988472312</v>
+        <v>0.8744452216124532</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1866</v>
+        <v>1492</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>768</v>
+        <v>1266</v>
       </c>
       <c r="B25" t="n">
-        <v>801</v>
+        <v>1286</v>
       </c>
       <c r="C25" t="n">
-        <v>914</v>
+        <v>1347</v>
       </c>
       <c r="D25" t="n">
-        <v>1.762595002167762</v>
+        <v>1.582370863673074</v>
       </c>
       <c r="E25" t="n">
-        <v>1.292457428464274</v>
+        <v>0.8792464969210964</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4701375737034882</v>
+        <v>-0.7031243667519782</v>
       </c>
       <c r="G25" t="n">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="H25" t="n">
-        <v>94.22427834275766</v>
+        <v>23.36697763350389</v>
       </c>
       <c r="I25" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="K25" t="n">
-        <v>182.5384254066613</v>
+        <v>84.7136292701711</v>
       </c>
       <c r="L25" t="n">
-        <v>4.206137555516859</v>
+        <v>6.718550976068316</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8103822064410557</v>
+        <v>0.8426349205633835</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2920353982300885</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1503591078416674</v>
+        <v>0.1959031826213149</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6975849979300335</v>
+        <v>0.7082260920939107</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1867</v>
+        <v>1493</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>618</v>
+        <v>1347</v>
       </c>
       <c r="B26" t="n">
-        <v>654</v>
+        <v>1381</v>
       </c>
       <c r="C26" t="n">
-        <v>770</v>
+        <v>1598</v>
       </c>
       <c r="D26" t="n">
-        <v>4.595280005366281</v>
+        <v>1.880146192680598</v>
       </c>
       <c r="E26" t="n">
-        <v>4.145194987853898</v>
+        <v>1.17702182592862</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4500850175123827</v>
+        <v>-0.7031243667519782</v>
       </c>
       <c r="G26" t="n">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="H26" t="n">
-        <v>88.15657693640378</v>
+        <v>46.67103991034423</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J26" t="n">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="K26" t="n">
-        <v>391.5766425803435</v>
+        <v>197.1949642798862</v>
       </c>
       <c r="L26" t="n">
-        <v>16.80318379309987</v>
+        <v>7.982868193530617</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8042536025736597</v>
+        <v>0.7793561767739512</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.1566820276497696</v>
       </c>
       <c r="R26" t="n">
-        <v>0.09235217832302774</v>
+        <v>0.4324620421151014</v>
       </c>
       <c r="S26" t="n">
-        <v>0.922199348347633</v>
+        <v>0.718845679191251</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1868</v>
+        <v>1494</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1472</v>
+        <v>768</v>
       </c>
       <c r="B27" t="n">
-        <v>1505</v>
+        <v>802</v>
       </c>
       <c r="C27" t="n">
-        <v>1598</v>
+        <v>911</v>
       </c>
       <c r="D27" t="n">
-        <v>5.725148326103954</v>
+        <v>2.340944723602741</v>
       </c>
       <c r="E27" t="n">
-        <v>5.338762216832283</v>
+        <v>1.740347082999007</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3863861092716718</v>
+        <v>-0.6005976406037333</v>
       </c>
       <c r="G27" t="n">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H27" t="n">
-        <v>52.28798237051251</v>
+        <v>102.5243747822327</v>
       </c>
       <c r="I27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J27" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="K27" t="n">
-        <v>377.864923320316</v>
+        <v>212.8795861654239</v>
       </c>
       <c r="L27" t="n">
-        <v>21.97714364365119</v>
+        <v>6.538146895194559</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9074379081142039</v>
+        <v>0.8448803112486659</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1911664168747816</v>
+        <v>0.3191959176461379</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9289620697441467</v>
+        <v>0.6410929396055286</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1869</v>
+        <v>1495</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1018</v>
+        <v>1478</v>
       </c>
       <c r="B28" t="n">
-        <v>1082</v>
+        <v>1507</v>
       </c>
       <c r="C28" t="n">
-        <v>1215</v>
+        <v>1598</v>
       </c>
       <c r="D28" t="n">
-        <v>4.255937498283394</v>
+        <v>2.332818629278744</v>
       </c>
       <c r="E28" t="n">
-        <v>3.556909309920457</v>
+        <v>1.732220988675011</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6990281883629371</v>
+        <v>-0.6005976406037333</v>
       </c>
       <c r="G28" t="n">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="H28" t="n">
-        <v>76.16631753184333</v>
+        <v>52.76389481163255</v>
       </c>
       <c r="I28" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J28" t="n">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="K28" t="n">
-        <v>444.1339692407688</v>
+        <v>161.7976628311364</v>
       </c>
       <c r="L28" t="n">
-        <v>18.01380457580081</v>
+        <v>6.515451101552439</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8781232270649109</v>
+        <v>0.8894631249080439</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.481203007518797</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2583149409565306</v>
+        <v>0.1681961580138137</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8716488357758344</v>
+        <v>0.8951814118203434</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1870</v>
+        <v>1496</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1266</v>
+        <v>379</v>
       </c>
       <c r="B29" t="n">
-        <v>1286</v>
+        <v>403</v>
       </c>
       <c r="C29" t="n">
-        <v>1347</v>
+        <v>544</v>
       </c>
       <c r="D29" t="n">
-        <v>1.579204345714325</v>
+        <v>1.942426042887106</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8801761573513884</v>
+        <v>1.067365750234837</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6990281883629371</v>
+        <v>-0.8750602926522687</v>
       </c>
       <c r="G29" t="n">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="H29" t="n">
-        <v>23.17401646275403</v>
+        <v>54.3981432996631</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J29" t="n">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="K29" t="n">
-        <v>84.5019696627818</v>
+        <v>203.7143744591845</v>
       </c>
       <c r="L29" t="n">
-        <v>6.684186147100926</v>
+        <v>5.051237770578299</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8318071280714016</v>
+        <v>0.8865369823350935</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1922173881808924</v>
+        <v>0.3195108848296333</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6797293635883579</v>
+        <v>0.8502403965800571</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1871</v>
+        <v>1497</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1347</v>
+        <v>899</v>
       </c>
       <c r="B30" t="n">
-        <v>1380</v>
+        <v>947</v>
       </c>
       <c r="C30" t="n">
-        <v>1598</v>
+        <v>1065</v>
       </c>
       <c r="D30" t="n">
-        <v>1.884695466491544</v>
+        <v>2.59873862835525</v>
       </c>
       <c r="E30" t="n">
-        <v>1.185667278128607</v>
+        <v>1.723678335702981</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6990281883629371</v>
+        <v>-0.8750602926522687</v>
       </c>
       <c r="G30" t="n">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="H30" t="n">
-        <v>46.19070679903211</v>
+        <v>41.19228242890961</v>
       </c>
       <c r="I30" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J30" t="n">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="K30" t="n">
-        <v>196.0415127717993</v>
+        <v>299.557662339403</v>
       </c>
       <c r="L30" t="n">
-        <v>7.97721673120673</v>
+        <v>6.757964743871494</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7743404928804639</v>
+        <v>0.6891012763707302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1513761467889908</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4219201641748198</v>
+        <v>0.161312479540252</v>
       </c>
       <c r="S30" t="n">
-        <v>0.710607684947524</v>
+        <v>0.4162062448017716</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1872</v>
+        <v>1498</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>769</v>
+        <v>1457</v>
       </c>
       <c r="B31" t="n">
-        <v>802</v>
+        <v>1504</v>
       </c>
       <c r="C31" t="n">
-        <v>911</v>
+        <v>1598</v>
       </c>
       <c r="D31" t="n">
-        <v>2.337477759050697</v>
+        <v>1.590467673381429</v>
       </c>
       <c r="E31" t="n">
-        <v>1.739923488206899</v>
+        <v>0.71540738072916</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5975542708437985</v>
+        <v>-0.8750602926522687</v>
       </c>
       <c r="G31" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" t="n">
-        <v>102.5001394680307</v>
+        <v>35.15162790889417</v>
       </c>
       <c r="I31" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J31" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K31" t="n">
-        <v>212.4270303592928</v>
+        <v>109.5551217993925</v>
       </c>
       <c r="L31" t="n">
-        <v>6.549270486885605</v>
+        <v>4.135977487578913</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.848592066341475</v>
+        <v>0.7055365045979304</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3027522935779817</v>
+        <v>0.5</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3049516242691451</v>
+        <v>0.5164942111212695</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6373749728884874</v>
+        <v>0.7425043402104886</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1873</v>
+        <v>1499</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1478</v>
+        <v>626</v>
       </c>
       <c r="B32" t="n">
-        <v>1506</v>
+        <v>651</v>
       </c>
       <c r="C32" t="n">
-        <v>1598</v>
+        <v>711</v>
       </c>
       <c r="D32" t="n">
-        <v>2.344771013241285</v>
+        <v>2.720750537696227</v>
       </c>
       <c r="E32" t="n">
-        <v>1.747216742397487</v>
+        <v>2.292980117515845</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5975542708437985</v>
+        <v>-0.4277704201803816</v>
       </c>
       <c r="G32" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="H32" t="n">
-        <v>52.81983452771237</v>
+        <v>70.14604424452511</v>
       </c>
       <c r="I32" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J32" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="K32" t="n">
-        <v>161.2545098699262</v>
+        <v>166.761617450699</v>
       </c>
       <c r="L32" t="n">
-        <v>6.569705117435061</v>
+        <v>6.960308788864848</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.8879824039540466</v>
+        <v>0.848830749188104</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1635518740441868</v>
+        <v>0.2466842336378867</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8739886741323901</v>
+        <v>0.9129957891382695</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1874</v>
+        <v>1500</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>380</v>
+        <v>1159</v>
       </c>
       <c r="B33" t="n">
-        <v>403</v>
+        <v>1179</v>
       </c>
       <c r="C33" t="n">
-        <v>545</v>
+        <v>1222</v>
       </c>
       <c r="D33" t="n">
-        <v>1.979320840190987</v>
+        <v>1.292080126678791</v>
       </c>
       <c r="E33" t="n">
-        <v>1.103196060001983</v>
+        <v>0.8354716221099242</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.8761247801890034</v>
+        <v>-0.4566085045688665</v>
       </c>
       <c r="G33" t="n">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="H33" t="n">
-        <v>53.33169873270901</v>
+        <v>23.36324005283745</v>
       </c>
       <c r="I33" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J33" t="n">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="K33" t="n">
-        <v>204.5533593721254</v>
+        <v>36.19962156176163</v>
       </c>
       <c r="L33" t="n">
-        <v>5.147868869549533</v>
+        <v>4.222731008803018</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8783167921657732</v>
+        <v>0.8476963672715228</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1619718309859155</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2896185483251266</v>
+        <v>0.3307055093557385</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8437931461667744</v>
+        <v>0.729372821522941</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1875</v>
+        <v>1501</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>900</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>947</v>
+        <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>1065</v>
+        <v>112</v>
       </c>
       <c r="D34" t="n">
-        <v>2.611197909527879</v>
+        <v>1.694980366280424</v>
       </c>
       <c r="E34" t="n">
-        <v>1.735073129338876</v>
+        <v>1.23683840864883</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.8761247801890034</v>
+        <v>-0.4581419576315938</v>
       </c>
       <c r="G34" t="n">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="H34" t="n">
-        <v>41.19732018968728</v>
+        <v>28.23843866942011</v>
       </c>
       <c r="I34" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J34" t="n">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="K34" t="n">
-        <v>298.4047662004214</v>
+        <v>79.54252300493303</v>
       </c>
       <c r="L34" t="n">
-        <v>6.791271105595163</v>
+        <v>4.221261970898648</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.6906863728574185</v>
+        <v>0.9239783981475799</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3983050847457627</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1604344358762043</v>
+        <v>0.2757189861662983</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4065544803300903</v>
+        <v>0.865479727135835</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1876</v>
+        <v>1502</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,73 +3395,73 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1457</v>
+        <v>112</v>
       </c>
       <c r="B35" t="n">
+        <v>145</v>
+      </c>
+      <c r="C35" t="n">
+        <v>232</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.078609327131838</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.620467369500244</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.4581419576315938</v>
+      </c>
+      <c r="G35" t="n">
+        <v>120</v>
+      </c>
+      <c r="H35" t="n">
+        <v>89.77172886845861</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>87</v>
+      </c>
+      <c r="K35" t="n">
+        <v>227.2161911077764</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.667119179907632</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8612145579202435</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.4448865181829914</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.87513600906224</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
         <v>1503</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1598</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.601864456318895</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.7257396761298914</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-0.8761247801890034</v>
-      </c>
-      <c r="G35" t="n">
-        <v>141</v>
-      </c>
-      <c r="H35" t="n">
-        <v>34.47975199507937</v>
-      </c>
-      <c r="I35" t="n">
-        <v>46</v>
-      </c>
-      <c r="J35" t="n">
-        <v>95</v>
-      </c>
-      <c r="K35" t="n">
-        <v>109.6134346498033</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.166170537125373</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>0.708989800560706</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.4842105263157895</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.5172652370913892</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.7502355531132741</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
-        <v>1877</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>626</v>
+        <v>232</v>
       </c>
       <c r="B36" t="n">
-        <v>654</v>
+        <v>250</v>
       </c>
       <c r="C36" t="n">
-        <v>712</v>
+        <v>275</v>
       </c>
       <c r="D36" t="n">
-        <v>2.711666350593469</v>
+        <v>2.023965783691746</v>
       </c>
       <c r="E36" t="n">
-        <v>2.285429853481765</v>
+        <v>1.565823826060152</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4262364971117043</v>
+        <v>-0.4581419576315938</v>
       </c>
       <c r="G36" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H36" t="n">
-        <v>72.21969915220768</v>
+        <v>18.63673809836141</v>
       </c>
       <c r="I36" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J36" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K36" t="n">
-        <v>168.1114239296049</v>
+        <v>60.49879605025627</v>
       </c>
       <c r="L36" t="n">
-        <v>6.870739743367884</v>
+        <v>5.040583338346792</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7697521304409602</v>
+        <v>0.8072366993052429</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.72</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1624905594420805</v>
+        <v>0.2957567799952055</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9141651963965807</v>
+        <v>0.9490815426675692</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1878</v>
+        <v>1504</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3560,264 +3560,6 @@
         </is>
       </c>
       <c r="X36" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>15</v>
-      </c>
-      <c r="B37" t="n">
-        <v>34</v>
-      </c>
-      <c r="C37" t="n">
-        <v>112</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.697746810973869</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.24439976041798</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-0.4533470505558888</v>
-      </c>
-      <c r="G37" t="n">
-        <v>97</v>
-      </c>
-      <c r="H37" t="n">
-        <v>27.82091583685935</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>78</v>
-      </c>
-      <c r="K37" t="n">
-        <v>79.56875382831383</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.173033311516445</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>0.9039584165557317</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.2435897435897436</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.2374329616055824</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.864427070100198</v>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
-        <v>1879</v>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>112</v>
-      </c>
-      <c r="B38" t="n">
-        <v>145</v>
-      </c>
-      <c r="C38" t="n">
-        <v>231</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3.1079084512141</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2.654561400658211</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-0.4533470505558888</v>
-      </c>
-      <c r="G38" t="n">
-        <v>119</v>
-      </c>
-      <c r="H38" t="n">
-        <v>92.26031797708956</v>
-      </c>
-      <c r="I38" t="n">
-        <v>33</v>
-      </c>
-      <c r="J38" t="n">
-        <v>86</v>
-      </c>
-      <c r="K38" t="n">
-        <v>225.272524719928</v>
-      </c>
-      <c r="L38" t="n">
-        <v>7.639187075616034</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>0.8573566121359004</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.3837209302325582</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.454036875627116</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.8740454227532106</v>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U38" t="n">
-        <v>1880</v>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>231</v>
-      </c>
-      <c r="B39" t="n">
-        <v>248</v>
-      </c>
-      <c r="C39" t="n">
-        <v>275</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.029828832689972</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.576481782134084</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-0.4533470505558888</v>
-      </c>
-      <c r="G39" t="n">
-        <v>44</v>
-      </c>
-      <c r="H39" t="n">
-        <v>18.96672444276115</v>
-      </c>
-      <c r="I39" t="n">
-        <v>17</v>
-      </c>
-      <c r="J39" t="n">
-        <v>27</v>
-      </c>
-      <c r="K39" t="n">
-        <v>61.50336024859615</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.989285375616688</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>0.8253767776985634</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.2382340044344321</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.9237346925206903</v>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U39" t="n">
-        <v>1881</v>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="B2" t="n">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C2" t="n">
-        <v>1541</v>
+        <v>1534</v>
       </c>
       <c r="D2" t="n">
-        <v>3.217380334441474</v>
+        <v>3.130810320671165</v>
       </c>
       <c r="E2" t="n">
-        <v>2.603103311289598</v>
+        <v>2.509433690405878</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6142770231518763</v>
+        <v>-0.6213766302652863</v>
       </c>
       <c r="G2" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H2" t="n">
-        <v>51.43036150187777</v>
+        <v>56.10737943822232</v>
       </c>
       <c r="I2" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K2" t="n">
-        <v>256.1618104600355</v>
+        <v>238.6290708110617</v>
       </c>
       <c r="L2" t="n">
-        <v>8.761745822110173</v>
+        <v>8.519840629512899</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7025822843395713</v>
+        <v>0.7649830602069667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.64</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="R2" t="n">
-        <v>0.151170445461463</v>
+        <v>0.161635143531534</v>
       </c>
       <c r="S2" t="n">
-        <v>0.966192818391343</v>
+        <v>0.990065889518789</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1470</v>
+        <v>727</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>848</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>1091</v>
+        <v>172</v>
       </c>
       <c r="D3" t="n">
-        <v>4.281908248172422</v>
+        <v>2.460225170386185</v>
       </c>
       <c r="E3" t="n">
-        <v>3.815046309966192</v>
+        <v>1.858950953218704</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4668619382062297</v>
+        <v>-0.6012742171674805</v>
       </c>
       <c r="G3" t="n">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="H3" t="n">
-        <v>143.1093314636524</v>
+        <v>46.07422587663748</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="K3" t="n">
-        <v>511.066413958997</v>
+        <v>265.1674292409796</v>
       </c>
       <c r="L3" t="n">
-        <v>29.89975158798851</v>
+        <v>5.993128631103431</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8785246862133129</v>
+        <v>0.6737268639538863</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1275720164609054</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5534044008020266</v>
+        <v>0.1806800169745787</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9537219885231709</v>
+        <v>0.7870945058682856</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1471</v>
+        <v>728</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>121</v>
+        <v>1489</v>
       </c>
       <c r="B4" t="n">
-        <v>154</v>
+        <v>1533</v>
       </c>
       <c r="C4" t="n">
-        <v>258</v>
+        <v>1598</v>
       </c>
       <c r="D4" t="n">
-        <v>2.494308821717878</v>
+        <v>3.650611997885888</v>
       </c>
       <c r="E4" t="n">
-        <v>1.754201677628066</v>
+        <v>3.144362242364106</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.740107144089812</v>
+        <v>-0.5062497555217821</v>
       </c>
       <c r="G4" t="n">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="H4" t="n">
-        <v>45.22375888537857</v>
+        <v>47.91689180082744</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="K4" t="n">
-        <v>192.921842681986</v>
+        <v>279.9554950545509</v>
       </c>
       <c r="L4" t="n">
-        <v>5.42255685810059</v>
+        <v>22.30081751188953</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.9488195461274065</v>
+        <v>0.8160634947317743</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3173076923076923</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2512547096338059</v>
+        <v>0.5507750877696056</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9730390963543685</v>
+        <v>0.9499330838265483</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1472</v>
+        <v>729</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>1302</v>
       </c>
       <c r="C5" t="n">
-        <v>163</v>
+        <v>1353</v>
       </c>
       <c r="D5" t="n">
-        <v>2.754764675294733</v>
+        <v>1.877493979731027</v>
       </c>
       <c r="E5" t="n">
-        <v>2.123153926383924</v>
+        <v>1.16908986724114</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6316107489108096</v>
+        <v>-0.7084041124898873</v>
       </c>
       <c r="G5" t="n">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="H5" t="n">
-        <v>38.59721235559238</v>
+        <v>33.73345632704741</v>
       </c>
       <c r="I5" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
-        <v>265.4263088718195</v>
+        <v>117.0989324453719</v>
       </c>
       <c r="L5" t="n">
-        <v>6.596245452229122</v>
+        <v>5.834488372581469</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6409263433815461</v>
+        <v>0.7817925476395816</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4954128440366973</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1840561122448187</v>
+        <v>0.1522841165416543</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6909847384910056</v>
+        <v>0.9814663133752097</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1473</v>
+        <v>730</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1305</v>
+        <v>1095</v>
       </c>
       <c r="B6" t="n">
-        <v>1362</v>
+        <v>1136</v>
       </c>
       <c r="C6" t="n">
-        <v>1598</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="n">
-        <v>1.938079920819605</v>
+        <v>2.834988913879319</v>
       </c>
       <c r="E6" t="n">
-        <v>1.418786093181209</v>
+        <v>2.28073447970687</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5192938276383958</v>
+        <v>-0.5542544341724498</v>
       </c>
       <c r="G6" t="n">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="H6" t="n">
-        <v>58.41263886975798</v>
+        <v>50.81666477145404</v>
       </c>
       <c r="I6" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J6" t="n">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="K6" t="n">
-        <v>237.9670709025665</v>
+        <v>163.085989384023</v>
       </c>
       <c r="L6" t="n">
-        <v>3.892627773430391</v>
+        <v>17.17782855767206</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7054357181954735</v>
+        <v>0.8197092732642569</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2415254237288136</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3625111545136695</v>
+        <v>0.1947630579051074</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4408180768500185</v>
+        <v>0.8975535873043999</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1474</v>
+        <v>731</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>429</v>
+        <v>170</v>
       </c>
       <c r="B7" t="n">
-        <v>465</v>
+        <v>239</v>
       </c>
       <c r="C7" t="n">
-        <v>536</v>
+        <v>350</v>
       </c>
       <c r="D7" t="n">
-        <v>2.745314587362538</v>
+        <v>2.838733504621874</v>
       </c>
       <c r="E7" t="n">
-        <v>2.019885799647508</v>
+        <v>2.117883103298878</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7254287877150302</v>
+        <v>-0.7208504013229964</v>
       </c>
       <c r="G7" t="n">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="H7" t="n">
-        <v>36.05631919913191</v>
+        <v>73.85661668011451</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J7" t="n">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="K7" t="n">
-        <v>243.8084707135203</v>
+        <v>320.3117362401132</v>
       </c>
       <c r="L7" t="n">
-        <v>8.294443066282222</v>
+        <v>12.37623523451196</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.6838048380323831</v>
+        <v>0.662533184772612</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5070422535211268</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1550574532950572</v>
+        <v>0.4860402183958127</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3948226904402726</v>
+        <v>0.859029015198888</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1475</v>
+        <v>732</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1173</v>
+        <v>128</v>
       </c>
       <c r="B8" t="n">
-        <v>1206</v>
+        <v>166</v>
       </c>
       <c r="C8" t="n">
-        <v>1274</v>
+        <v>319</v>
       </c>
       <c r="D8" t="n">
-        <v>2.465428340821731</v>
+        <v>2.669969299022153</v>
       </c>
       <c r="E8" t="n">
-        <v>1.739999553106701</v>
+        <v>2.150976421366094</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7254287877150302</v>
+        <v>-0.5189928776560595</v>
       </c>
       <c r="G8" t="n">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="H8" t="n">
-        <v>154.6121816675577</v>
+        <v>107.3936034245717</v>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="K8" t="n">
-        <v>158.2848532125619</v>
+        <v>308.8612471243857</v>
       </c>
       <c r="L8" t="n">
-        <v>7.448820292245804</v>
+        <v>8.117916289890944</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8139756591501982</v>
+        <v>0.8926937220185271</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.2483660130718954</v>
       </c>
       <c r="R8" t="n">
-        <v>0.360833154923886</v>
+        <v>0.1867559681904152</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9506735281655312</v>
+        <v>0.926689983801577</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1476</v>
+        <v>733</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1274</v>
+        <v>1491</v>
       </c>
       <c r="B9" t="n">
-        <v>1302</v>
+        <v>1524</v>
       </c>
       <c r="C9" t="n">
-        <v>1358</v>
+        <v>1598</v>
       </c>
       <c r="D9" t="n">
-        <v>1.966464783258725</v>
+        <v>2.265324131679689</v>
       </c>
       <c r="E9" t="n">
-        <v>1.241035995543694</v>
+        <v>1.746331254023629</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7254287877150302</v>
+        <v>-0.5189928776560595</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H9" t="n">
-        <v>32.01759449234851</v>
+        <v>35.77762540749313</v>
       </c>
       <c r="I9" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="K9" t="n">
-        <v>115.8499109330837</v>
+        <v>104.8981884133129</v>
       </c>
       <c r="L9" t="n">
-        <v>5.941297314949412</v>
+        <v>6.887611657999451</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.887296815122024</v>
+        <v>0.8913076582465923</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="R9" t="n">
-        <v>0.209292148840543</v>
+        <v>0.3857944412701452</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9919240082233252</v>
+        <v>0.970264542579879</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1477</v>
+        <v>734</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1278</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
-        <v>1300</v>
+        <v>158</v>
       </c>
       <c r="C10" t="n">
-        <v>1362</v>
+        <v>302</v>
       </c>
       <c r="D10" t="n">
-        <v>1.702986235480952</v>
+        <v>4.144516592872979</v>
       </c>
       <c r="E10" t="n">
-        <v>1.035372866370905</v>
+        <v>3.639582735755685</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6676133691100476</v>
+        <v>-0.5049338571172941</v>
       </c>
       <c r="G10" t="n">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="H10" t="n">
-        <v>68.89491762695229</v>
+        <v>132.5963074324472</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J10" t="n">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="K10" t="n">
-        <v>81.30713750926617</v>
+        <v>432.7909980662495</v>
       </c>
       <c r="L10" t="n">
-        <v>5.722164299669334</v>
+        <v>13.40527886697524</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8928381952940745</v>
+        <v>0.9131208582149615</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3125</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2411001791277836</v>
+        <v>0.2162383101840209</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9844628498136428</v>
+        <v>0.9632048374117685</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1478</v>
+        <v>735</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="C11" t="n">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="D11" t="n">
-        <v>3.160913470309751</v>
+        <v>2.827307342418865</v>
       </c>
       <c r="E11" t="n">
-        <v>2.645417619588258</v>
+        <v>2.249524067740251</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5154958507214927</v>
+        <v>-0.5777832746786139</v>
       </c>
       <c r="G11" t="n">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="H11" t="n">
-        <v>158.0758237949536</v>
+        <v>39.09564654653942</v>
       </c>
       <c r="I11" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J11" t="n">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="K11" t="n">
-        <v>277.9546408487489</v>
+        <v>298.0593582635797</v>
       </c>
       <c r="L11" t="n">
-        <v>7.831149705702246</v>
+        <v>10.83551787685376</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.5731956455464956</v>
+        <v>0.5906400110567872</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.569620253164557</v>
+        <v>0.467948717948718</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1536068446437223</v>
+        <v>0.5540506722540797</v>
       </c>
       <c r="S11" t="n">
-        <v>0.727254097822337</v>
+        <v>0.7857638138590209</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1479</v>
+        <v>736</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>213</v>
+        <v>1103</v>
       </c>
       <c r="B12" t="n">
-        <v>235</v>
+        <v>1140</v>
       </c>
       <c r="C12" t="n">
-        <v>337</v>
+        <v>1272</v>
       </c>
       <c r="D12" t="n">
-        <v>2.988729058810855</v>
+        <v>2.785816240761818</v>
       </c>
       <c r="E12" t="n">
-        <v>2.26190569311816</v>
+        <v>2.208032966083204</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7268233656926949</v>
+        <v>-0.5777832746786139</v>
       </c>
       <c r="G12" t="n">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="H12" t="n">
-        <v>70.19524438779459</v>
+        <v>45.27174093412896</v>
       </c>
       <c r="I12" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="K12" t="n">
-        <v>207.7761004859244</v>
+        <v>209.1225615958055</v>
       </c>
       <c r="L12" t="n">
-        <v>12.84334195290391</v>
+        <v>10.67650524777373</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8831778857090308</v>
+        <v>0.9095578411950784</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.2803030303030303</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4678014604977582</v>
+        <v>0.3667603222346373</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8239966693376313</v>
+        <v>0.8452358929540177</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1480</v>
+        <v>737</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>447</v>
+        <v>1465</v>
       </c>
       <c r="B13" t="n">
-        <v>472</v>
+        <v>1511</v>
       </c>
       <c r="C13" t="n">
-        <v>564</v>
+        <v>1598</v>
       </c>
       <c r="D13" t="n">
-        <v>2.403430350549504</v>
+        <v>5.464458129331429</v>
       </c>
       <c r="E13" t="n">
-        <v>1.676606984856809</v>
+        <v>5.080548618066046</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7268233656926949</v>
+        <v>-0.3839095112653826</v>
       </c>
       <c r="G13" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H13" t="n">
-        <v>81.19542800711724</v>
+        <v>56.8301584803321</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J13" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K13" t="n">
-        <v>199.3366413771072</v>
+        <v>379.7319432084315</v>
       </c>
       <c r="L13" t="n">
-        <v>10.32816198614426</v>
+        <v>22.07393664406211</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8078817274068139</v>
+        <v>0.8241831176630776</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2717391304347826</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1124974818195414</v>
+        <v>0.1826277665514796</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8517152341401646</v>
+        <v>0.9260426527764106</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1481</v>
+        <v>738</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>1091</v>
       </c>
       <c r="C14" t="n">
-        <v>194</v>
+        <v>1344</v>
       </c>
       <c r="D14" t="n">
-        <v>4.752283636296903</v>
+        <v>4.224323030407356</v>
       </c>
       <c r="E14" t="n">
-        <v>4.230471317271798</v>
+        <v>3.512170432505834</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5218123190251047</v>
+        <v>-0.7121525979015222</v>
       </c>
       <c r="G14" t="n">
-        <v>194</v>
+        <v>326</v>
       </c>
       <c r="H14" t="n">
-        <v>89.15521860848401</v>
+        <v>80.61326631181328</v>
       </c>
       <c r="I14" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J14" t="n">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="K14" t="n">
-        <v>425.4407662437749</v>
+        <v>598.0099918819134</v>
       </c>
       <c r="L14" t="n">
-        <v>22.93864717818531</v>
+        <v>18.67372943796467</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7397749991159649</v>
+        <v>0.8951339402087115</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.2885375494071146</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4692924668932251</v>
+        <v>0.4033426822654007</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8802659374652863</v>
+        <v>0.8487408982495778</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1482</v>
+        <v>739</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131</v>
+        <v>1344</v>
       </c>
       <c r="B15" t="n">
-        <v>159</v>
+        <v>1388</v>
       </c>
       <c r="C15" t="n">
-        <v>326</v>
+        <v>1598</v>
       </c>
       <c r="D15" t="n">
-        <v>2.701072322711279</v>
+        <v>1.882783494180141</v>
       </c>
       <c r="E15" t="n">
-        <v>2.159047534979523</v>
+        <v>1.170630896278619</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5420247877317563</v>
+        <v>-0.7121525979015222</v>
       </c>
       <c r="G15" t="n">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7644722259522</v>
+        <v>45.43913421053685</v>
       </c>
       <c r="I15" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J15" t="n">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="K15" t="n">
-        <v>319.1682307072654</v>
+        <v>202.1592205428127</v>
       </c>
       <c r="L15" t="n">
-        <v>8.1845491174857</v>
+        <v>8.322893232243016</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8763647186703376</v>
+        <v>0.8176653893397976</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1676646706586826</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2141785913045213</v>
+        <v>0.4792371985452798</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9143974699916373</v>
+        <v>0.7969225284871979</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1483</v>
+        <v>740</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1496</v>
+        <v>564</v>
       </c>
       <c r="B16" t="n">
-        <v>1521</v>
+        <v>623</v>
       </c>
       <c r="C16" t="n">
-        <v>1598</v>
+        <v>759</v>
       </c>
       <c r="D16" t="n">
-        <v>2.587787594539178</v>
+        <v>3.474883771552792</v>
       </c>
       <c r="E16" t="n">
-        <v>2.045762806807422</v>
+        <v>2.873482877450374</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5420247877317563</v>
+        <v>-0.601400894102418</v>
       </c>
       <c r="G16" t="n">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="H16" t="n">
-        <v>31.00674958447985</v>
+        <v>135.2529494706833</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="K16" t="n">
-        <v>106.6690588469584</v>
+        <v>377.679428232326</v>
       </c>
       <c r="L16" t="n">
-        <v>7.841283809781945</v>
+        <v>9.540510993972861</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.9321869741952926</v>
+        <v>0.8140223904430404</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.4338235294117647</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4350895078619888</v>
+        <v>0.2035031643276952</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9728784064572653</v>
+        <v>0.8720261722067645</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1484</v>
+        <v>741</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1224</v>
+        <v>759</v>
       </c>
       <c r="B17" t="n">
-        <v>1253</v>
+        <v>804</v>
       </c>
       <c r="C17" t="n">
-        <v>1338</v>
+        <v>911</v>
       </c>
       <c r="D17" t="n">
-        <v>3.45879926395435</v>
+        <v>2.31972940236937</v>
       </c>
       <c r="E17" t="n">
-        <v>2.951440722375675</v>
+        <v>1.718328508266952</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5073585415786745</v>
+        <v>-0.601400894102418</v>
       </c>
       <c r="G17" t="n">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="H17" t="n">
-        <v>87.32316398272405</v>
+        <v>99.76104217618945</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="K17" t="n">
-        <v>212.6580909788986</v>
+        <v>214.5868124729548</v>
       </c>
       <c r="L17" t="n">
-        <v>10.31578580222941</v>
+        <v>6.368962336963977</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.838083688623578</v>
+        <v>0.788655836339146</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3411764705882353</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3747419286227346</v>
+        <v>0.3970580880142733</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6921678022258972</v>
+        <v>0.7345477225170312</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1485</v>
+        <v>742</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="B18" t="n">
-        <v>151</v>
+        <v>415</v>
       </c>
       <c r="C18" t="n">
-        <v>297</v>
+        <v>537</v>
       </c>
       <c r="D18" t="n">
-        <v>4.307589357834091</v>
+        <v>2.041111431694861</v>
       </c>
       <c r="E18" t="n">
-        <v>3.773135452755355</v>
+        <v>1.156166007805772</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5344539050787367</v>
+        <v>-0.8849454238890891</v>
       </c>
       <c r="G18" t="n">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H18" t="n">
-        <v>128.0439347346505</v>
+        <v>55.46891363112337</v>
       </c>
       <c r="I18" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J18" t="n">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="K18" t="n">
-        <v>433.2026556806904</v>
+        <v>199.8266596889461</v>
       </c>
       <c r="L18" t="n">
-        <v>13.7267185634432</v>
+        <v>5.315731440612878</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.8931325941095321</v>
+        <v>0.9300965545794178</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2397260273972603</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2033199065168676</v>
+        <v>0.2599654309195771</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9460628555256996</v>
+        <v>0.8622893706968349</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1486</v>
+        <v>743</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>657</v>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>709</v>
       </c>
       <c r="D19" t="n">
-        <v>2.327840332667974</v>
+        <v>2.868269259031398</v>
       </c>
       <c r="E19" t="n">
-        <v>1.744160062425547</v>
+        <v>2.421906656309129</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5836802702424274</v>
+        <v>-0.4463626027222694</v>
       </c>
       <c r="G19" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="H19" t="n">
-        <v>15.36618140419724</v>
+        <v>60.52611378662016</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K19" t="n">
-        <v>67.86067033834172</v>
+        <v>164.2452113693445</v>
       </c>
       <c r="L19" t="n">
-        <v>8.8300651913009</v>
+        <v>7.772345806458564</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8613449505140015</v>
+        <v>0.7885433395930602</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1306992886624554</v>
+        <v>0.2472956603058701</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9844292715386455</v>
+        <v>0.9721867027431129</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1487</v>
+        <v>744</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>35</v>
+        <v>709</v>
       </c>
       <c r="B20" t="n">
-        <v>66</v>
+        <v>747</v>
       </c>
       <c r="C20" t="n">
-        <v>225</v>
+        <v>873</v>
       </c>
       <c r="D20" t="n">
-        <v>2.718677241712799</v>
+        <v>2.265502969446289</v>
       </c>
       <c r="E20" t="n">
-        <v>2.134996971470372</v>
+        <v>1.819140366724019</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5836802702424274</v>
+        <v>-0.4463626027222694</v>
       </c>
       <c r="G20" t="n">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="H20" t="n">
-        <v>48.15193895395019</v>
+        <v>36.15292256757562</v>
       </c>
       <c r="I20" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="K20" t="n">
-        <v>231.2571642382396</v>
+        <v>155.8625888110624</v>
       </c>
       <c r="L20" t="n">
-        <v>10.3126047527995</v>
+        <v>6.138988677109596</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8332776736854633</v>
+        <v>0.8114473898615613</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1949685534591195</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5130960897428117</v>
+        <v>0.6187685179810481</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7306287873526311</v>
+        <v>0.7258914065324593</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1488</v>
+        <v>745</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1107</v>
+        <v>1442</v>
       </c>
       <c r="B21" t="n">
-        <v>1134</v>
+        <v>1476</v>
       </c>
       <c r="C21" t="n">
-        <v>1238</v>
+        <v>1598</v>
       </c>
       <c r="D21" t="n">
-        <v>2.884331375432647</v>
+        <v>1.958864317282376</v>
       </c>
       <c r="E21" t="n">
-        <v>2.30065110519022</v>
+        <v>1.49419441086844</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5836802702424274</v>
+        <v>-0.4646699064139361</v>
       </c>
       <c r="G21" t="n">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H21" t="n">
-        <v>47.93480571099963</v>
+        <v>112.211355421166</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J21" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="K21" t="n">
-        <v>187.0949515108309</v>
+        <v>205.997796315067</v>
       </c>
       <c r="L21" t="n">
-        <v>10.94097121738356</v>
+        <v>7.057930732113853</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.9602295044192604</v>
+        <v>0.7069996187991082</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2828529636876522</v>
+        <v>0.5090875209642344</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9080534207040738</v>
+        <v>0.3033414276076093</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1489</v>
+        <v>746</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2270,1296 +2270,6 @@
         </is>
       </c>
       <c r="X21" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>552</v>
-      </c>
-      <c r="B22" t="n">
-        <v>582</v>
-      </c>
-      <c r="C22" t="n">
-        <v>768</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.613248365037225</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.144414322130143</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.4688340429070822</v>
-      </c>
-      <c r="G22" t="n">
-        <v>216</v>
-      </c>
-      <c r="H22" t="n">
-        <v>158.7901986562738</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" t="n">
-        <v>186</v>
-      </c>
-      <c r="K22" t="n">
-        <v>460.2227905461542</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.640525766278484</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>0.8436810616742341</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.1612903225806452</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.2582577598583635</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.8314243863754941</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U22" t="n">
-        <v>1490</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1471</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1506</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1598</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5.704184939713825</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.318963713719037</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.3852212259947881</v>
-      </c>
-      <c r="G23" t="n">
-        <v>127</v>
-      </c>
-      <c r="H23" t="n">
-        <v>52.84065579022422</v>
-      </c>
-      <c r="I23" t="n">
-        <v>35</v>
-      </c>
-      <c r="J23" t="n">
-        <v>92</v>
-      </c>
-      <c r="K23" t="n">
-        <v>378.00880908785</v>
-      </c>
-      <c r="L23" t="n">
-        <v>22.0036639351122</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>0.9000259029004956</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.3804347826086957</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.1969710370659087</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.9276539992105034</v>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>n36</t>
-        </is>
-      </c>
-      <c r="U23" t="n">
-        <v>1491</v>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1083</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1215</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.228981566874978</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.525857200123</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.7031243667519782</v>
-      </c>
-      <c r="G24" t="n">
-        <v>198</v>
-      </c>
-      <c r="H24" t="n">
-        <v>76.73584185340792</v>
-      </c>
-      <c r="I24" t="n">
-        <v>66</v>
-      </c>
-      <c r="J24" t="n">
-        <v>132</v>
-      </c>
-      <c r="K24" t="n">
-        <v>444.9293101669302</v>
-      </c>
-      <c r="L24" t="n">
-        <v>17.95573268326621</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>0.8714326804266188</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.2646381622003086</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.8744452216124532</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>n37</t>
-        </is>
-      </c>
-      <c r="U24" t="n">
-        <v>1492</v>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1266</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1286</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1347</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.582370863673074</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8792464969210964</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.7031243667519782</v>
-      </c>
-      <c r="G25" t="n">
-        <v>81</v>
-      </c>
-      <c r="H25" t="n">
-        <v>23.36697763350389</v>
-      </c>
-      <c r="I25" t="n">
-        <v>20</v>
-      </c>
-      <c r="J25" t="n">
-        <v>61</v>
-      </c>
-      <c r="K25" t="n">
-        <v>84.7136292701711</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6.718550976068316</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>0.8426349205633835</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.3278688524590164</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.1959031826213149</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.7082260920939107</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>n37</t>
-        </is>
-      </c>
-      <c r="U25" t="n">
-        <v>1493</v>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1347</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1381</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1598</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.880146192680598</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.17702182592862</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.7031243667519782</v>
-      </c>
-      <c r="G26" t="n">
-        <v>251</v>
-      </c>
-      <c r="H26" t="n">
-        <v>46.67103991034423</v>
-      </c>
-      <c r="I26" t="n">
-        <v>34</v>
-      </c>
-      <c r="J26" t="n">
-        <v>217</v>
-      </c>
-      <c r="K26" t="n">
-        <v>197.1949642798862</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.982868193530617</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>0.7793561767739512</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.1566820276497696</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.4324620421151014</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.718845679191251</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>n37</t>
-        </is>
-      </c>
-      <c r="U26" t="n">
-        <v>1494</v>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>768</v>
-      </c>
-      <c r="B27" t="n">
-        <v>802</v>
-      </c>
-      <c r="C27" t="n">
-        <v>911</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2.340944723602741</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.740347082999007</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-0.6005976406037333</v>
-      </c>
-      <c r="G27" t="n">
-        <v>143</v>
-      </c>
-      <c r="H27" t="n">
-        <v>102.5243747822327</v>
-      </c>
-      <c r="I27" t="n">
-        <v>34</v>
-      </c>
-      <c r="J27" t="n">
-        <v>109</v>
-      </c>
-      <c r="K27" t="n">
-        <v>212.8795861654239</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.538146895194559</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>0.8448803112486659</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.3119266055045872</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.3191959176461379</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.6410929396055286</v>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>n39</t>
-        </is>
-      </c>
-      <c r="U27" t="n">
-        <v>1495</v>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1478</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1507</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1598</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2.332818629278744</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.732220988675011</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-0.6005976406037333</v>
-      </c>
-      <c r="G28" t="n">
-        <v>120</v>
-      </c>
-      <c r="H28" t="n">
-        <v>52.76389481163255</v>
-      </c>
-      <c r="I28" t="n">
-        <v>29</v>
-      </c>
-      <c r="J28" t="n">
-        <v>91</v>
-      </c>
-      <c r="K28" t="n">
-        <v>161.7976628311364</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.515451101552439</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>0.8894631249080439</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.3186813186813187</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.1681961580138137</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.8951814118203434</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>n39</t>
-        </is>
-      </c>
-      <c r="U28" t="n">
-        <v>1496</v>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>379</v>
-      </c>
-      <c r="B29" t="n">
-        <v>403</v>
-      </c>
-      <c r="C29" t="n">
-        <v>544</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.942426042887106</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.067365750234837</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-0.8750602926522687</v>
-      </c>
-      <c r="G29" t="n">
-        <v>165</v>
-      </c>
-      <c r="H29" t="n">
-        <v>54.3981432996631</v>
-      </c>
-      <c r="I29" t="n">
-        <v>24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>141</v>
-      </c>
-      <c r="K29" t="n">
-        <v>203.7143744591845</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.051237770578299</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>0.8865369823350935</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.1702127659574468</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.3195108848296333</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.8502403965800571</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U29" t="n">
-        <v>1497</v>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>899</v>
-      </c>
-      <c r="B30" t="n">
-        <v>947</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1065</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.59873862835525</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.723678335702981</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.8750602926522687</v>
-      </c>
-      <c r="G30" t="n">
-        <v>166</v>
-      </c>
-      <c r="H30" t="n">
-        <v>41.19228242890961</v>
-      </c>
-      <c r="I30" t="n">
-        <v>48</v>
-      </c>
-      <c r="J30" t="n">
-        <v>118</v>
-      </c>
-      <c r="K30" t="n">
-        <v>299.557662339403</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6.757964743871494</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>0.6891012763707302</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.4067796610169492</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.161312479540252</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.4162062448017716</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U30" t="n">
-        <v>1498</v>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1457</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1504</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1598</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.590467673381429</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.71540738072916</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-0.8750602926522687</v>
-      </c>
-      <c r="G31" t="n">
-        <v>141</v>
-      </c>
-      <c r="H31" t="n">
-        <v>35.15162790889417</v>
-      </c>
-      <c r="I31" t="n">
-        <v>47</v>
-      </c>
-      <c r="J31" t="n">
-        <v>94</v>
-      </c>
-      <c r="K31" t="n">
-        <v>109.5551217993925</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.135977487578913</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>0.7055365045979304</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.5164942111212695</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.7425043402104886</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>n40</t>
-        </is>
-      </c>
-      <c r="U31" t="n">
-        <v>1499</v>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>626</v>
-      </c>
-      <c r="B32" t="n">
-        <v>651</v>
-      </c>
-      <c r="C32" t="n">
-        <v>711</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2.720750537696227</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.292980117515845</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.4277704201803816</v>
-      </c>
-      <c r="G32" t="n">
-        <v>85</v>
-      </c>
-      <c r="H32" t="n">
-        <v>70.14604424452511</v>
-      </c>
-      <c r="I32" t="n">
-        <v>25</v>
-      </c>
-      <c r="J32" t="n">
-        <v>60</v>
-      </c>
-      <c r="K32" t="n">
-        <v>166.761617450699</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6.960308788864848</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>0.848830749188104</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.2466842336378867</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.9129957891382695</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>n41</t>
-        </is>
-      </c>
-      <c r="U32" t="n">
-        <v>1500</v>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1159</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1179</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1222</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.292080126678791</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.8354716221099242</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.4566085045688665</v>
-      </c>
-      <c r="G33" t="n">
-        <v>63</v>
-      </c>
-      <c r="H33" t="n">
-        <v>23.36324005283745</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20</v>
-      </c>
-      <c r="J33" t="n">
-        <v>43</v>
-      </c>
-      <c r="K33" t="n">
-        <v>36.19962156176163</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.222731008803018</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>0.8476963672715228</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.4651162790697674</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.3307055093557385</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.729372821522941</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>n42</t>
-        </is>
-      </c>
-      <c r="U33" t="n">
-        <v>1501</v>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>15</v>
-      </c>
-      <c r="B34" t="n">
-        <v>36</v>
-      </c>
-      <c r="C34" t="n">
-        <v>112</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.694980366280424</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.23683840864883</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-0.4581419576315938</v>
-      </c>
-      <c r="G34" t="n">
-        <v>97</v>
-      </c>
-      <c r="H34" t="n">
-        <v>28.23843866942011</v>
-      </c>
-      <c r="I34" t="n">
-        <v>21</v>
-      </c>
-      <c r="J34" t="n">
-        <v>76</v>
-      </c>
-      <c r="K34" t="n">
-        <v>79.54252300493303</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.221261970898648</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>0.9239783981475799</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.2763157894736842</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.2757189861662983</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.865479727135835</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U34" t="n">
-        <v>1502</v>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>112</v>
-      </c>
-      <c r="B35" t="n">
-        <v>145</v>
-      </c>
-      <c r="C35" t="n">
-        <v>232</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.078609327131838</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.620467369500244</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-0.4581419576315938</v>
-      </c>
-      <c r="G35" t="n">
-        <v>120</v>
-      </c>
-      <c r="H35" t="n">
-        <v>89.77172886845861</v>
-      </c>
-      <c r="I35" t="n">
-        <v>33</v>
-      </c>
-      <c r="J35" t="n">
-        <v>87</v>
-      </c>
-      <c r="K35" t="n">
-        <v>227.2161911077764</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.667119179907632</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>0.8612145579202435</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.4448865181829914</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.87513600906224</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
-        <v>1503</v>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>232</v>
-      </c>
-      <c r="B36" t="n">
-        <v>250</v>
-      </c>
-      <c r="C36" t="n">
-        <v>275</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2.023965783691746</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.565823826060152</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-0.4581419576315938</v>
-      </c>
-      <c r="G36" t="n">
-        <v>43</v>
-      </c>
-      <c r="H36" t="n">
-        <v>18.63673809836141</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>25</v>
-      </c>
-      <c r="K36" t="n">
-        <v>60.49879605025627</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.040583338346792</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>0.8072366993052429</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.2957567799952055</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.9490815426675692</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>n44</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
-        <v>1504</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="B2" t="n">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C2" t="n">
-        <v>1534</v>
+        <v>1541</v>
       </c>
       <c r="D2" t="n">
-        <v>3.130810320671165</v>
+        <v>3.217380334441474</v>
       </c>
       <c r="E2" t="n">
-        <v>2.509433690405878</v>
+        <v>2.603103311289598</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6213766302652863</v>
+        <v>-0.6142770231518763</v>
       </c>
       <c r="G2" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="H2" t="n">
-        <v>56.10737943822232</v>
+        <v>51.43036150187777</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>238.6290708110617</v>
+        <v>256.1618104600355</v>
       </c>
       <c r="L2" t="n">
-        <v>8.519840629512899</v>
+        <v>8.761745822110173</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7649830602069667</v>
+        <v>0.7025822843395713</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6417910447761194</v>
+        <v>0.64</v>
       </c>
       <c r="R2" t="n">
-        <v>0.161635143531534</v>
+        <v>0.151170445461463</v>
       </c>
       <c r="S2" t="n">
-        <v>0.990065889518789</v>
+        <v>0.966192818391343</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>727</v>
+        <v>1470</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>848</v>
       </c>
       <c r="C3" t="n">
-        <v>172</v>
+        <v>1091</v>
       </c>
       <c r="D3" t="n">
-        <v>2.460225170386185</v>
+        <v>4.281908248172422</v>
       </c>
       <c r="E3" t="n">
-        <v>1.858950953218704</v>
+        <v>3.815046309966192</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6012742171674805</v>
+        <v>-0.4668619382062297</v>
       </c>
       <c r="G3" t="n">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="H3" t="n">
-        <v>46.07422587663748</v>
+        <v>143.1093314636524</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="K3" t="n">
-        <v>265.1674292409796</v>
+        <v>511.066413958997</v>
       </c>
       <c r="L3" t="n">
-        <v>5.993128631103431</v>
+        <v>29.89975158798851</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6737268639538863</v>
+        <v>0.8785246862133129</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4700854700854701</v>
+        <v>0.1275720164609054</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1806800169745787</v>
+        <v>0.5534044008020266</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7870945058682856</v>
+        <v>0.9537219885231709</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>728</v>
+        <v>1471</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1489</v>
+        <v>121</v>
       </c>
       <c r="B4" t="n">
-        <v>1533</v>
+        <v>154</v>
       </c>
       <c r="C4" t="n">
-        <v>1598</v>
+        <v>258</v>
       </c>
       <c r="D4" t="n">
-        <v>3.650611997885888</v>
+        <v>2.494308821717878</v>
       </c>
       <c r="E4" t="n">
-        <v>3.144362242364106</v>
+        <v>1.754201677628066</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5062497555217821</v>
+        <v>-0.740107144089812</v>
       </c>
       <c r="G4" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H4" t="n">
-        <v>47.91689180082744</v>
+        <v>45.22375888537857</v>
       </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="K4" t="n">
-        <v>279.9554950545509</v>
+        <v>192.921842681986</v>
       </c>
       <c r="L4" t="n">
-        <v>22.30081751188953</v>
+        <v>5.42255685810059</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8160634947317743</v>
+        <v>0.9488195461274065</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.676923076923077</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5507750877696056</v>
+        <v>0.2512547096338059</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9499330838265483</v>
+        <v>0.9730390963543685</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>729</v>
+        <v>1472</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1269</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1302</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>1353</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>1.877493979731027</v>
+        <v>2.754764675294733</v>
       </c>
       <c r="E5" t="n">
-        <v>1.16908986724114</v>
+        <v>2.123153926383924</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7084041124898873</v>
+        <v>-0.6316107489108096</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="H5" t="n">
-        <v>33.73345632704741</v>
+        <v>38.59721235559238</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J5" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="K5" t="n">
-        <v>117.0989324453719</v>
+        <v>265.4263088718195</v>
       </c>
       <c r="L5" t="n">
-        <v>5.834488372581469</v>
+        <v>6.596245452229122</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7817925476395816</v>
+        <v>0.6409263433815461</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1522841165416543</v>
+        <v>0.1840561122448187</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9814663133752097</v>
+        <v>0.6909847384910056</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>730</v>
+        <v>1473</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1095</v>
+        <v>1305</v>
       </c>
       <c r="B6" t="n">
-        <v>1136</v>
+        <v>1362</v>
       </c>
       <c r="C6" t="n">
-        <v>1211</v>
+        <v>1598</v>
       </c>
       <c r="D6" t="n">
-        <v>2.834988913879319</v>
+        <v>1.938079920819605</v>
       </c>
       <c r="E6" t="n">
-        <v>2.28073447970687</v>
+        <v>1.418786093181209</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5542544341724498</v>
+        <v>-0.5192938276383958</v>
       </c>
       <c r="G6" t="n">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="H6" t="n">
-        <v>50.81666477145404</v>
+        <v>58.41263886975798</v>
       </c>
       <c r="I6" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="K6" t="n">
-        <v>163.085989384023</v>
+        <v>237.9670709025665</v>
       </c>
       <c r="L6" t="n">
-        <v>17.17782855767206</v>
+        <v>3.892627773430391</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8197092732642569</v>
+        <v>0.7054357181954735</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5466666666666666</v>
+        <v>0.2415254237288136</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1947630579051074</v>
+        <v>0.3625111545136695</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8975535873043999</v>
+        <v>0.4408180768500185</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>731</v>
+        <v>1474</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>170</v>
+        <v>429</v>
       </c>
       <c r="B7" t="n">
-        <v>239</v>
+        <v>465</v>
       </c>
       <c r="C7" t="n">
-        <v>350</v>
+        <v>536</v>
       </c>
       <c r="D7" t="n">
-        <v>2.838733504621874</v>
+        <v>2.745314587362538</v>
       </c>
       <c r="E7" t="n">
-        <v>2.117883103298878</v>
+        <v>2.019885799647508</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7208504013229964</v>
+        <v>-0.7254287877150302</v>
       </c>
       <c r="G7" t="n">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="H7" t="n">
-        <v>73.85661668011451</v>
+        <v>36.05631919913191</v>
       </c>
       <c r="I7" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="K7" t="n">
-        <v>320.3117362401132</v>
+        <v>243.8084707135203</v>
       </c>
       <c r="L7" t="n">
-        <v>12.37623523451196</v>
+        <v>8.294443066282222</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.662533184772612</v>
+        <v>0.6838048380323831</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4860402183958127</v>
+        <v>0.1550574532950572</v>
       </c>
       <c r="S7" t="n">
-        <v>0.859029015198888</v>
+        <v>0.3948226904402726</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>732</v>
+        <v>1475</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>128</v>
+        <v>1173</v>
       </c>
       <c r="B8" t="n">
-        <v>166</v>
+        <v>1206</v>
       </c>
       <c r="C8" t="n">
-        <v>319</v>
+        <v>1274</v>
       </c>
       <c r="D8" t="n">
-        <v>2.669969299022153</v>
+        <v>2.465428340821731</v>
       </c>
       <c r="E8" t="n">
-        <v>2.150976421366094</v>
+        <v>1.739999553106701</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5189928776560595</v>
+        <v>-0.7254287877150302</v>
       </c>
       <c r="G8" t="n">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="H8" t="n">
-        <v>107.3936034245717</v>
+        <v>154.6121816675577</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="K8" t="n">
-        <v>308.8612471243857</v>
+        <v>158.2848532125619</v>
       </c>
       <c r="L8" t="n">
-        <v>8.117916289890944</v>
+        <v>7.448820292245804</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8926937220185271</v>
+        <v>0.8139756591501982</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2483660130718954</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1867559681904152</v>
+        <v>0.360833154923886</v>
       </c>
       <c r="S8" t="n">
-        <v>0.926689983801577</v>
+        <v>0.9506735281655312</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>733</v>
+        <v>1476</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1491</v>
+        <v>1274</v>
       </c>
       <c r="B9" t="n">
-        <v>1524</v>
+        <v>1302</v>
       </c>
       <c r="C9" t="n">
-        <v>1598</v>
+        <v>1358</v>
       </c>
       <c r="D9" t="n">
-        <v>2.265324131679689</v>
+        <v>1.966464783258725</v>
       </c>
       <c r="E9" t="n">
-        <v>1.746331254023629</v>
+        <v>1.241035995543694</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5189928776560595</v>
+        <v>-0.7254287877150302</v>
       </c>
       <c r="G9" t="n">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H9" t="n">
-        <v>35.77762540749313</v>
+        <v>32.01759449234851</v>
       </c>
       <c r="I9" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>104.8981884133129</v>
+        <v>115.8499109330837</v>
       </c>
       <c r="L9" t="n">
-        <v>6.887611657999451</v>
+        <v>5.941297314949412</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8913076582465923</v>
+        <v>0.887296815122024</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4459459459459459</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3857944412701452</v>
+        <v>0.209292148840543</v>
       </c>
       <c r="S9" t="n">
-        <v>0.970264542579879</v>
+        <v>0.9919240082233252</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>734</v>
+        <v>1477</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>113</v>
+        <v>1278</v>
       </c>
       <c r="B10" t="n">
-        <v>158</v>
+        <v>1300</v>
       </c>
       <c r="C10" t="n">
-        <v>302</v>
+        <v>1362</v>
       </c>
       <c r="D10" t="n">
-        <v>4.144516592872979</v>
+        <v>1.702986235480952</v>
       </c>
       <c r="E10" t="n">
-        <v>3.639582735755685</v>
+        <v>1.035372866370905</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5049338571172941</v>
+        <v>-0.6676133691100476</v>
       </c>
       <c r="G10" t="n">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="H10" t="n">
-        <v>132.5963074324472</v>
+        <v>68.89491762695229</v>
       </c>
       <c r="I10" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="K10" t="n">
-        <v>432.7909980662495</v>
+        <v>81.30713750926617</v>
       </c>
       <c r="L10" t="n">
-        <v>13.40527886697524</v>
+        <v>5.722164299669334</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.9131208582149615</v>
+        <v>0.8928381952940745</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3125</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2162383101840209</v>
+        <v>0.2411001791277836</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9632048374117685</v>
+        <v>0.9844628498136428</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>735</v>
+        <v>1478</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="B11" t="n">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="C11" t="n">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="D11" t="n">
-        <v>2.827307342418865</v>
+        <v>3.160913470309751</v>
       </c>
       <c r="E11" t="n">
-        <v>2.249524067740251</v>
+        <v>2.645417619588258</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5777832746786139</v>
+        <v>-0.5154958507214927</v>
       </c>
       <c r="G11" t="n">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="H11" t="n">
-        <v>39.09564654653942</v>
+        <v>158.0758237949536</v>
       </c>
       <c r="I11" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J11" t="n">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="K11" t="n">
-        <v>298.0593582635797</v>
+        <v>277.9546408487489</v>
       </c>
       <c r="L11" t="n">
-        <v>10.83551787685376</v>
+        <v>7.831149705702246</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.5906400110567872</v>
+        <v>0.5731956455464956</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.467948717948718</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5540506722540797</v>
+        <v>0.1536068446437223</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7857638138590209</v>
+        <v>0.727254097822337</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>736</v>
+        <v>1479</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1103</v>
+        <v>213</v>
       </c>
       <c r="B12" t="n">
-        <v>1140</v>
+        <v>235</v>
       </c>
       <c r="C12" t="n">
-        <v>1272</v>
+        <v>337</v>
       </c>
       <c r="D12" t="n">
-        <v>2.785816240761818</v>
+        <v>2.988729058810855</v>
       </c>
       <c r="E12" t="n">
-        <v>2.208032966083204</v>
+        <v>2.26190569311816</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5777832746786139</v>
+        <v>-0.7268233656926949</v>
       </c>
       <c r="G12" t="n">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="H12" t="n">
-        <v>45.27174093412896</v>
+        <v>70.19524438779459</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="K12" t="n">
-        <v>209.1225615958055</v>
+        <v>207.7761004859244</v>
       </c>
       <c r="L12" t="n">
-        <v>10.67650524777373</v>
+        <v>12.84334195290391</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.9095578411950784</v>
+        <v>0.8831778857090308</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2803030303030303</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3667603222346373</v>
+        <v>0.4678014604977582</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8452358929540177</v>
+        <v>0.8239966693376313</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>737</v>
+        <v>1480</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1465</v>
+        <v>447</v>
       </c>
       <c r="B13" t="n">
-        <v>1511</v>
+        <v>472</v>
       </c>
       <c r="C13" t="n">
-        <v>1598</v>
+        <v>564</v>
       </c>
       <c r="D13" t="n">
-        <v>5.464458129331429</v>
+        <v>2.403430350549504</v>
       </c>
       <c r="E13" t="n">
-        <v>5.080548618066046</v>
+        <v>1.676606984856809</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3839095112653826</v>
+        <v>-0.7268233656926949</v>
       </c>
       <c r="G13" t="n">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H13" t="n">
-        <v>56.8301584803321</v>
+        <v>81.19542800711724</v>
       </c>
       <c r="I13" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J13" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K13" t="n">
-        <v>379.7319432084315</v>
+        <v>199.3366413771072</v>
       </c>
       <c r="L13" t="n">
-        <v>22.07393664406211</v>
+        <v>10.32816198614426</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8241831176630776</v>
+        <v>0.8078817274068139</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5287356321839081</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1826277665514796</v>
+        <v>0.1124974818195414</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9260426527764106</v>
+        <v>0.8517152341401646</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>738</v>
+        <v>1481</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1091</v>
+        <v>62</v>
       </c>
       <c r="C14" t="n">
-        <v>1344</v>
+        <v>194</v>
       </c>
       <c r="D14" t="n">
-        <v>4.224323030407356</v>
+        <v>4.752283636296903</v>
       </c>
       <c r="E14" t="n">
-        <v>3.512170432505834</v>
+        <v>4.230471317271798</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7121525979015222</v>
+        <v>-0.5218123190251047</v>
       </c>
       <c r="G14" t="n">
-        <v>326</v>
+        <v>194</v>
       </c>
       <c r="H14" t="n">
-        <v>80.61326631181328</v>
+        <v>89.15521860848401</v>
       </c>
       <c r="I14" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J14" t="n">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="K14" t="n">
-        <v>598.0099918819134</v>
+        <v>425.4407662437749</v>
       </c>
       <c r="L14" t="n">
-        <v>18.67372943796467</v>
+        <v>22.93864717818531</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8951339402087115</v>
+        <v>0.7397749991159649</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2885375494071146</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4033426822654007</v>
+        <v>0.4692924668932251</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8487408982495778</v>
+        <v>0.8802659374652863</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>739</v>
+        <v>1482</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1344</v>
+        <v>131</v>
       </c>
       <c r="B15" t="n">
-        <v>1388</v>
+        <v>159</v>
       </c>
       <c r="C15" t="n">
-        <v>1598</v>
+        <v>326</v>
       </c>
       <c r="D15" t="n">
-        <v>1.882783494180141</v>
+        <v>2.701072322711279</v>
       </c>
       <c r="E15" t="n">
-        <v>1.170630896278619</v>
+        <v>2.159047534979523</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7121525979015222</v>
+        <v>-0.5420247877317563</v>
       </c>
       <c r="G15" t="n">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="H15" t="n">
-        <v>45.43913421053685</v>
+        <v>108.7644722259522</v>
       </c>
       <c r="I15" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="K15" t="n">
-        <v>202.1592205428127</v>
+        <v>319.1682307072654</v>
       </c>
       <c r="L15" t="n">
-        <v>8.322893232243016</v>
+        <v>8.1845491174857</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8176653893397976</v>
+        <v>0.8763647186703376</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2095238095238095</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4792371985452798</v>
+        <v>0.2141785913045213</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7969225284871979</v>
+        <v>0.9143974699916373</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>740</v>
+        <v>1483</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>564</v>
+        <v>1496</v>
       </c>
       <c r="B16" t="n">
-        <v>623</v>
+        <v>1521</v>
       </c>
       <c r="C16" t="n">
-        <v>759</v>
+        <v>1598</v>
       </c>
       <c r="D16" t="n">
-        <v>3.474883771552792</v>
+        <v>2.587787594539178</v>
       </c>
       <c r="E16" t="n">
-        <v>2.873482877450374</v>
+        <v>2.045762806807422</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.601400894102418</v>
+        <v>-0.5420247877317563</v>
       </c>
       <c r="G16" t="n">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="H16" t="n">
-        <v>135.2529494706833</v>
+        <v>31.00674958447985</v>
       </c>
       <c r="I16" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
-        <v>377.679428232326</v>
+        <v>106.6690588469584</v>
       </c>
       <c r="L16" t="n">
-        <v>9.540510993972861</v>
+        <v>7.841283809781945</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8140223904430404</v>
+        <v>0.9321869741952926</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4338235294117647</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2035031643276952</v>
+        <v>0.4350895078619888</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8720261722067645</v>
+        <v>0.9728784064572653</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>741</v>
+        <v>1484</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>759</v>
+        <v>1224</v>
       </c>
       <c r="B17" t="n">
-        <v>804</v>
+        <v>1253</v>
       </c>
       <c r="C17" t="n">
-        <v>911</v>
+        <v>1338</v>
       </c>
       <c r="D17" t="n">
-        <v>2.31972940236937</v>
+        <v>3.45879926395435</v>
       </c>
       <c r="E17" t="n">
-        <v>1.718328508266952</v>
+        <v>2.951440722375675</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.601400894102418</v>
+        <v>-0.5073585415786745</v>
       </c>
       <c r="G17" t="n">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="H17" t="n">
-        <v>99.76104217618945</v>
+        <v>87.32316398272405</v>
       </c>
       <c r="I17" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J17" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="K17" t="n">
-        <v>214.5868124729548</v>
+        <v>212.6580909788986</v>
       </c>
       <c r="L17" t="n">
-        <v>6.368962336963977</v>
+        <v>10.31578580222941</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.788655836339146</v>
+        <v>0.838083688623578</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4205607476635514</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3970580880142733</v>
+        <v>0.3747419286227346</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7345477225170312</v>
+        <v>0.6921678022258972</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>742</v>
+        <v>1485</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>376</v>
+        <v>116</v>
       </c>
       <c r="B18" t="n">
-        <v>415</v>
+        <v>151</v>
       </c>
       <c r="C18" t="n">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="D18" t="n">
-        <v>2.041111431694861</v>
+        <v>4.307589357834091</v>
       </c>
       <c r="E18" t="n">
-        <v>1.156166007805772</v>
+        <v>3.773135452755355</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8849454238890891</v>
+        <v>-0.5344539050787367</v>
       </c>
       <c r="G18" t="n">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H18" t="n">
-        <v>55.46891363112337</v>
+        <v>128.0439347346505</v>
       </c>
       <c r="I18" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="K18" t="n">
-        <v>199.8266596889461</v>
+        <v>433.2026556806904</v>
       </c>
       <c r="L18" t="n">
-        <v>5.315731440612878</v>
+        <v>13.7267185634432</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.9300965545794178</v>
+        <v>0.8931325941095321</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.319672131147541</v>
+        <v>0.2397260273972603</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2599654309195771</v>
+        <v>0.2033199065168676</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8622893706968349</v>
+        <v>0.9460628555256996</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>743</v>
+        <v>1486</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>623</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>657</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>709</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>2.868269259031398</v>
+        <v>2.327840332667974</v>
       </c>
       <c r="E19" t="n">
-        <v>2.421906656309129</v>
+        <v>1.744160062425547</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4463626027222694</v>
+        <v>-0.5836802702424274</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="H19" t="n">
-        <v>60.52611378662016</v>
+        <v>15.36618140419724</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="K19" t="n">
-        <v>164.2452113693445</v>
+        <v>67.86067033834172</v>
       </c>
       <c r="L19" t="n">
-        <v>7.772345806458564</v>
+        <v>8.8300651913009</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7885433395930602</v>
+        <v>0.8613449505140015</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2472956603058701</v>
+        <v>0.1306992886624554</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9721867027431129</v>
+        <v>0.9844292715386455</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>744</v>
+        <v>1487</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>709</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>873</v>
+        <v>225</v>
       </c>
       <c r="D20" t="n">
-        <v>2.265502969446289</v>
+        <v>2.718677241712799</v>
       </c>
       <c r="E20" t="n">
-        <v>1.819140366724019</v>
+        <v>2.134996971470372</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4463626027222694</v>
+        <v>-0.5836802702424274</v>
       </c>
       <c r="G20" t="n">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="H20" t="n">
-        <v>36.15292256757562</v>
+        <v>48.15193895395019</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J20" t="n">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="K20" t="n">
-        <v>155.8625888110624</v>
+        <v>231.2571642382396</v>
       </c>
       <c r="L20" t="n">
-        <v>6.138988677109596</v>
+        <v>10.3126047527995</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8114473898615613</v>
+        <v>0.8332776736854633</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6187685179810481</v>
+        <v>0.5130960897428117</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7258914065324593</v>
+        <v>0.7306287873526311</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>745</v>
+        <v>1488</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,85 +2191,1375 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1442</v>
+        <v>1107</v>
       </c>
       <c r="B21" t="n">
-        <v>1476</v>
+        <v>1134</v>
       </c>
       <c r="C21" t="n">
+        <v>1238</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.884331375432647</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.30065110519022</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.5836802702424274</v>
+      </c>
+      <c r="G21" t="n">
+        <v>131</v>
+      </c>
+      <c r="H21" t="n">
+        <v>47.93480571099963</v>
+      </c>
+      <c r="I21" t="n">
+        <v>27</v>
+      </c>
+      <c r="J21" t="n">
+        <v>104</v>
+      </c>
+      <c r="K21" t="n">
+        <v>187.0949515108309</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10.94097121738356</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0.9602295044192604</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2596153846153846</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.2828529636876522</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.9080534207040738</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>1489</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>552</v>
+      </c>
+      <c r="B22" t="n">
+        <v>582</v>
+      </c>
+      <c r="C22" t="n">
+        <v>768</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.613248365037225</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.144414322130143</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.4688340429070822</v>
+      </c>
+      <c r="G22" t="n">
+        <v>216</v>
+      </c>
+      <c r="H22" t="n">
+        <v>158.7901986562738</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" t="n">
+        <v>186</v>
+      </c>
+      <c r="K22" t="n">
+        <v>460.2227905461542</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.640525766278484</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8436810616742341</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.2582577598583635</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8314243863754941</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>1490</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C23" t="n">
         <v>1598</v>
       </c>
-      <c r="D21" t="n">
-        <v>1.958864317282376</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.49419441086844</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.4646699064139361</v>
-      </c>
-      <c r="G21" t="n">
-        <v>156</v>
-      </c>
-      <c r="H21" t="n">
-        <v>112.211355421166</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="D23" t="n">
+        <v>5.704184939713825</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.318963713719037</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.3852212259947881</v>
+      </c>
+      <c r="G23" t="n">
+        <v>127</v>
+      </c>
+      <c r="H23" t="n">
+        <v>52.84065579022422</v>
+      </c>
+      <c r="I23" t="n">
+        <v>35</v>
+      </c>
+      <c r="J23" t="n">
+        <v>92</v>
+      </c>
+      <c r="K23" t="n">
+        <v>378.00880908785</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22.0036639351122</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0.9000259029004956</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3804347826086957</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1969710370659087</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.9276539992105034</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>1491</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1083</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.228981566874978</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.525857200123</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.7031243667519782</v>
+      </c>
+      <c r="G24" t="n">
+        <v>198</v>
+      </c>
+      <c r="H24" t="n">
+        <v>76.73584185340792</v>
+      </c>
+      <c r="I24" t="n">
+        <v>66</v>
+      </c>
+      <c r="J24" t="n">
+        <v>132</v>
+      </c>
+      <c r="K24" t="n">
+        <v>444.9293101669302</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17.95573268326621</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8714326804266188</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.2646381622003086</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.8744452216124532</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>1492</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1347</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.582370863673074</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8792464969210964</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.7031243667519782</v>
+      </c>
+      <c r="G25" t="n">
+        <v>81</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23.36697763350389</v>
+      </c>
+      <c r="I25" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" t="n">
+        <v>61</v>
+      </c>
+      <c r="K25" t="n">
+        <v>84.7136292701711</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.718550976068316</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8426349205633835</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1959031826213149</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.7082260920939107</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>1493</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1347</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1381</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.880146192680598</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.17702182592862</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.7031243667519782</v>
+      </c>
+      <c r="G26" t="n">
+        <v>251</v>
+      </c>
+      <c r="H26" t="n">
+        <v>46.67103991034423</v>
+      </c>
+      <c r="I26" t="n">
         <v>34</v>
       </c>
-      <c r="J21" t="n">
-        <v>122</v>
-      </c>
-      <c r="K21" t="n">
-        <v>205.997796315067</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7.057930732113853</v>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="J26" t="n">
+        <v>217</v>
+      </c>
+      <c r="K26" t="n">
+        <v>197.1949642798862</v>
+      </c>
+      <c r="L26" t="n">
+        <v>7.982868193530617</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P21" t="n">
-        <v>0.7069996187991082</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.2786885245901639</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.5090875209642344</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.3033414276076093</v>
-      </c>
-      <c r="T21" t="inlineStr">
+      <c r="P26" t="n">
+        <v>0.7793561767739512</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1566820276497696</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.4324620421151014</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.718845679191251</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>1494</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>768</v>
+      </c>
+      <c r="B27" t="n">
+        <v>802</v>
+      </c>
+      <c r="C27" t="n">
+        <v>911</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.340944723602741</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.740347082999007</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.6005976406037333</v>
+      </c>
+      <c r="G27" t="n">
+        <v>143</v>
+      </c>
+      <c r="H27" t="n">
+        <v>102.5243747822327</v>
+      </c>
+      <c r="I27" t="n">
+        <v>34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>109</v>
+      </c>
+      <c r="K27" t="n">
+        <v>212.8795861654239</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.538146895194559</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8448803112486659</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3119266055045872</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.3191959176461379</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.6410929396055286</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>1495</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1478</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1507</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.332818629278744</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.732220988675011</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.6005976406037333</v>
+      </c>
+      <c r="G28" t="n">
+        <v>120</v>
+      </c>
+      <c r="H28" t="n">
+        <v>52.76389481163255</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>91</v>
+      </c>
+      <c r="K28" t="n">
+        <v>161.7976628311364</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.515451101552439</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8894631249080439</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.3186813186813187</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.1681961580138137</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8951814118203434</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>1496</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>379</v>
+      </c>
+      <c r="B29" t="n">
+        <v>403</v>
+      </c>
+      <c r="C29" t="n">
+        <v>544</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.942426042887106</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.067365750234837</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.8750602926522687</v>
+      </c>
+      <c r="G29" t="n">
+        <v>165</v>
+      </c>
+      <c r="H29" t="n">
+        <v>54.3981432996631</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>141</v>
+      </c>
+      <c r="K29" t="n">
+        <v>203.7143744591845</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.051237770578299</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8865369823350935</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.3195108848296333</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.8502403965800571</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>1497</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>899</v>
+      </c>
+      <c r="B30" t="n">
+        <v>947</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.59873862835525</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.723678335702981</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.8750602926522687</v>
+      </c>
+      <c r="G30" t="n">
+        <v>166</v>
+      </c>
+      <c r="H30" t="n">
+        <v>41.19228242890961</v>
+      </c>
+      <c r="I30" t="n">
+        <v>48</v>
+      </c>
+      <c r="J30" t="n">
+        <v>118</v>
+      </c>
+      <c r="K30" t="n">
+        <v>299.557662339403</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.757964743871494</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6891012763707302</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.161312479540252</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.4162062448017716</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>1498</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.590467673381429</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.71540738072916</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.8750602926522687</v>
+      </c>
+      <c r="G31" t="n">
+        <v>141</v>
+      </c>
+      <c r="H31" t="n">
+        <v>35.15162790889417</v>
+      </c>
+      <c r="I31" t="n">
+        <v>47</v>
+      </c>
+      <c r="J31" t="n">
+        <v>94</v>
+      </c>
+      <c r="K31" t="n">
+        <v>109.5551217993925</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.135977487578913</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.7055365045979304</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.5164942111212695</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.7425043402104886</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1499</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>626</v>
+      </c>
+      <c r="B32" t="n">
+        <v>651</v>
+      </c>
+      <c r="C32" t="n">
+        <v>711</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.720750537696227</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.292980117515845</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.4277704201803816</v>
+      </c>
+      <c r="G32" t="n">
+        <v>85</v>
+      </c>
+      <c r="H32" t="n">
+        <v>70.14604424452511</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>60</v>
+      </c>
+      <c r="K32" t="n">
+        <v>166.761617450699</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.960308788864848</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.848830749188104</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.2466842336378867</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.9129957891382695</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.292080126678791</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8354716221099242</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.4566085045688665</v>
+      </c>
+      <c r="G33" t="n">
+        <v>63</v>
+      </c>
+      <c r="H33" t="n">
+        <v>23.36324005283745</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>43</v>
+      </c>
+      <c r="K33" t="n">
+        <v>36.19962156176163</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.222731008803018</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8476963672715228</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.4651162790697674</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.3307055093557385</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.729372821522941</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>n42</t>
         </is>
       </c>
-      <c r="U21" t="n">
-        <v>746</v>
-      </c>
-      <c r="V21" t="inlineStr">
+      <c r="U33" t="n">
+        <v>1501</v>
+      </c>
+      <c r="V33" t="inlineStr">
         <is>
           <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>15</v>
+      </c>
+      <c r="B34" t="n">
+        <v>36</v>
+      </c>
+      <c r="C34" t="n">
+        <v>112</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.694980366280424</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.23683840864883</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.4581419576315938</v>
+      </c>
+      <c r="G34" t="n">
+        <v>97</v>
+      </c>
+      <c r="H34" t="n">
+        <v>28.23843866942011</v>
+      </c>
+      <c r="I34" t="n">
+        <v>21</v>
+      </c>
+      <c r="J34" t="n">
+        <v>76</v>
+      </c>
+      <c r="K34" t="n">
+        <v>79.54252300493303</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.221261970898648</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.9239783981475799</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.2763157894736842</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.2757189861662983</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.865479727135835</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1502</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112</v>
+      </c>
+      <c r="B35" t="n">
+        <v>145</v>
+      </c>
+      <c r="C35" t="n">
+        <v>232</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.078609327131838</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.620467369500244</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.4581419576315938</v>
+      </c>
+      <c r="G35" t="n">
+        <v>120</v>
+      </c>
+      <c r="H35" t="n">
+        <v>89.77172886845861</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>87</v>
+      </c>
+      <c r="K35" t="n">
+        <v>227.2161911077764</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.667119179907632</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8612145579202435</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.4448865181829914</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.87513600906224</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>1503</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>232</v>
+      </c>
+      <c r="B36" t="n">
+        <v>250</v>
+      </c>
+      <c r="C36" t="n">
+        <v>275</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.023965783691746</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.565823826060152</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.4581419576315938</v>
+      </c>
+      <c r="G36" t="n">
+        <v>43</v>
+      </c>
+      <c r="H36" t="n">
+        <v>18.63673809836141</v>
+      </c>
+      <c r="I36" t="n">
+        <v>18</v>
+      </c>
+      <c r="J36" t="n">
+        <v>25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>60.49879605025627</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.040583338346792</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8072366993052429</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.2957567799952055</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9490815426675692</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1504</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930xuanweiCellVedio22024-12-05182322trace/processed_No.29790930xuanweiCellVedio22024-12-05182322trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1470</v>
+        <v>1538</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1471</v>
+        <v>1539</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1472</v>
+        <v>1540</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1473</v>
+        <v>1541</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1474</v>
+        <v>1542</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1475</v>
+        <v>1543</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1476</v>
+        <v>1544</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1477</v>
+        <v>1545</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1478</v>
+        <v>1546</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1479</v>
+        <v>1547</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1480</v>
+        <v>1548</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1481</v>
+        <v>1549</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1482</v>
+        <v>1550</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1483</v>
+        <v>1551</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1484</v>
+        <v>1552</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1485</v>
+        <v>1553</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1486</v>
+        <v>1554</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1487</v>
+        <v>1555</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1488</v>
+        <v>1556</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1489</v>
+        <v>1557</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1490</v>
+        <v>1558</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1491</v>
+        <v>1559</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1492</v>
+        <v>1560</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1493</v>
+        <v>1561</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1494</v>
+        <v>1562</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1495</v>
+        <v>1563</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1496</v>
+        <v>1564</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1497</v>
+        <v>1565</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1498</v>
+        <v>1566</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1499</v>
+        <v>1567</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1500</v>
+        <v>1568</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1501</v>
+        <v>1569</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>1445</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>1467</v>
       </c>
       <c r="C34" t="n">
-        <v>112</v>
+        <v>1514</v>
       </c>
       <c r="D34" t="n">
-        <v>1.694980366280424</v>
+        <v>2.476329771339937</v>
       </c>
       <c r="E34" t="n">
-        <v>1.23683840864883</v>
+        <v>2.019721266771071</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4581419576315938</v>
+        <v>-0.4566085045688665</v>
       </c>
       <c r="G34" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="H34" t="n">
-        <v>28.23843866942011</v>
+        <v>30.57600991724848</v>
       </c>
       <c r="I34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J34" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K34" t="n">
-        <v>79.54252300493303</v>
+        <v>86.96713847282284</v>
       </c>
       <c r="L34" t="n">
-        <v>4.221261970898648</v>
+        <v>8.093054213547861</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.9239783981475799</v>
+        <v>0.8366644798441526</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2763157894736842</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2757189861662983</v>
+        <v>0.2707456898874456</v>
       </c>
       <c r="S34" t="n">
-        <v>0.865479727135835</v>
+        <v>0.7497932555151912</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1502</v>
+        <v>1570</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>15</v>
+      </c>
+      <c r="B35" t="n">
+        <v>36</v>
+      </c>
+      <c r="C35" t="n">
         <v>112</v>
       </c>
-      <c r="B35" t="n">
-        <v>145</v>
-      </c>
-      <c r="C35" t="n">
-        <v>232</v>
-      </c>
       <c r="D35" t="n">
-        <v>3.078609327131838</v>
+        <v>1.694980366280424</v>
       </c>
       <c r="E35" t="n">
-        <v>2.620467369500244</v>
+        <v>1.23683840864883</v>
       </c>
       <c r="F35" t="n">
         <v>-0.4581419576315938</v>
       </c>
       <c r="G35" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="H35" t="n">
-        <v>89.77172886845861</v>
+        <v>28.23843866942011</v>
       </c>
       <c r="I35" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J35" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K35" t="n">
-        <v>227.2161911077764</v>
+        <v>79.54252300493303</v>
       </c>
       <c r="L35" t="n">
-        <v>7.667119179907632</v>
+        <v>4.221261970898648</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8612145579202435</v>
+        <v>0.9239783981475799</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4448865181829914</v>
+        <v>0.2757189861662983</v>
       </c>
       <c r="S35" t="n">
-        <v>0.87513600906224</v>
+        <v>0.865479727135835</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1503</v>
+        <v>1571</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,85 +3481,171 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>112</v>
+      </c>
+      <c r="B36" t="n">
+        <v>145</v>
+      </c>
+      <c r="C36" t="n">
         <v>232</v>
       </c>
-      <c r="B36" t="n">
-        <v>250</v>
-      </c>
-      <c r="C36" t="n">
-        <v>275</v>
-      </c>
       <c r="D36" t="n">
-        <v>2.023965783691746</v>
+        <v>3.078609327131838</v>
       </c>
       <c r="E36" t="n">
-        <v>1.565823826060152</v>
+        <v>2.620467369500244</v>
       </c>
       <c r="F36" t="n">
         <v>-0.4581419576315938</v>
       </c>
       <c r="G36" t="n">
+        <v>120</v>
+      </c>
+      <c r="H36" t="n">
+        <v>89.77172886845861</v>
+      </c>
+      <c r="I36" t="n">
+        <v>33</v>
+      </c>
+      <c r="J36" t="n">
+        <v>87</v>
+      </c>
+      <c r="K36" t="n">
+        <v>227.2161911077764</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.667119179907632</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8612145579202435</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4448865181829914</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.87513600906224</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1572</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>232</v>
+      </c>
+      <c r="B37" t="n">
+        <v>250</v>
+      </c>
+      <c r="C37" t="n">
+        <v>275</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.023965783691746</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.565823826060152</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.4581419576315938</v>
+      </c>
+      <c r="G37" t="n">
         <v>43</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>18.63673809836141</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>18</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J37" t="n">
         <v>25</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K37" t="n">
         <v>60.49879605025627</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>5.040583338346792</v>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P36" t="n">
+      <c r="P37" t="n">
         <v>0.8072366993052429</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q37" t="n">
         <v>0.72</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R37" t="n">
         <v>0.2957567799952055</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S37" t="n">
         <v>0.9490815426675692</v>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>n44</t>
         </is>
       </c>
-      <c r="U36" t="n">
-        <v>1504</v>
-      </c>
-      <c r="V36" t="inlineStr">
+      <c r="U37" t="n">
+        <v>1573</v>
+      </c>
+      <c r="V37" t="inlineStr">
         <is>
           <t>processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930xuanweiCellVedio22024-12-05182322trace.xlsx</t>
         </is>
